--- a/data/ag_data.xlsx
+++ b/data/ag_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/Scenario Analysis Agriculture GHG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/Scenario Analysis Agriculture GHG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7AA1BF6-8620-4AA8-903F-892A0AE97A98}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA130069-B53A-432E-8D0D-8183C1BFB86E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Input" sheetId="2" r:id="rId1"/>
@@ -105,12 +105,6 @@
     <t>UN</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>N20 Present</t>
-  </si>
-  <si>
     <t>Production (tonnes/year)</t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Number of Years</t>
+  </si>
+  <si>
+    <t>N2O Present</t>
   </si>
 </sst>
 </file>
@@ -630,10 +630,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -954,8 +950,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,33 +963,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>100000</v>
@@ -1015,7 +1011,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/data/ag_data.xlsx
+++ b/data/ag_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/Scenario Analysis Agriculture GHG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{200662A1-7D6D-4337-88EC-3EBA89B4F6F7}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9143B857-80F6-40AD-B8CD-511B1D6C69F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Input" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="41">
   <si>
     <t>Case Number</t>
   </si>
@@ -129,6 +129,39 @@
   <si>
     <t>Emissions Permit Price</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ratio to AS</t>
+  </si>
+  <si>
+    <t>Ratio to MAP</t>
+  </si>
+  <si>
+    <t>Ratio to DAP</t>
+  </si>
+  <si>
+    <t>Ratio to AN</t>
+  </si>
+  <si>
+    <t>Ratio to Urea</t>
+  </si>
+  <si>
+    <t>Ratio to UAN</t>
+  </si>
 </sst>
 </file>
 
@@ -170,12 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -186,6 +213,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -479,6 +513,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -486,21 +549,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,57 +563,83 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -905,60 +985,62 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="35" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="35"/>
+    <col min="4" max="4" width="13.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15" style="35" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="35"/>
+    <col min="7" max="7" width="15.42578125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="34" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="35">
+        <v>10</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="35">
         <v>100000</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="36">
         <v>0.5</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="37">
         <v>0.1</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="38">
         <v>25</v>
       </c>
     </row>
@@ -972,8 +1054,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +1071,7 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="32" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,5941 +1081,5941 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="9">
         <v>17417</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="17">
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="15">
         <v>17417</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="11">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="14">
         <v>154799</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="15">
         <v>17417</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14">
         <v>154799</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="15">
         <v>17417</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="F6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="15">
         <v>17417</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="15">
         <v>17417</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="14">
         <v>219311</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="15">
         <v>17417</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="14">
         <v>219311</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="15">
         <v>17417</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="14">
         <v>26551</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="15">
         <v>17417</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="14">
         <v>26551</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <v>17417</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>5</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="F12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="14">
         <v>2595</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <v>17417</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>5</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="17">
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="14">
         <v>2595</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="15">
         <v>17417</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>5</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="17">
+      <c r="F14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="15">
         <v>17417</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <v>5</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="17">
+      <c r="F15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="15">
         <v>17417</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>5</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="17">
+      <c r="F16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="14">
         <v>154799</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>17417</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>5</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="17">
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="14">
         <v>154799</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="15">
         <v>17417</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="11">
         <v>5</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="17">
+      <c r="F18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>17417</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="11">
         <v>5</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="17">
+      <c r="F19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <v>17417</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="11">
         <v>5</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="17">
+      <c r="F20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="14">
         <v>219311</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="15">
         <v>17417</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>5</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="14">
         <v>219311</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="15">
         <v>17417</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="11">
         <v>5</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="17">
+      <c r="F22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="14">
         <v>26551</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="15">
         <v>17417</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="17">
+      <c r="F23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="14">
         <v>26551</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="15">
         <v>17417</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>5</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="C24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="17">
+      <c r="F24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="14">
         <v>2595</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="15">
         <v>17417</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <v>5</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="C25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="17">
+      <c r="F25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="14">
         <v>2595</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="15">
         <v>17417</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="11">
         <v>5</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="17">
+      <c r="F26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="15">
         <f>17417+31519</f>
         <v>48936</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="11">
         <v>5</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="D27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="17">
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="15">
         <f t="shared" ref="H27:H31" si="1">17417+31519</f>
         <v>48936</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="11">
         <v>5</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="17">
+      <c r="F28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="14">
         <v>154799</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="15">
         <f t="shared" si="1"/>
         <v>48936</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="11">
         <v>5</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="17">
+      <c r="F29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="14">
         <v>154799</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="15">
         <f t="shared" si="1"/>
         <v>48936</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="11">
         <v>5</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="C30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="17">
+      <c r="F30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="15">
         <f t="shared" si="1"/>
         <v>48936</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="11">
         <v>5</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="C31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="17">
+      <c r="F31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="15">
         <f t="shared" si="1"/>
         <v>48936</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="11">
         <v>5</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="17">
+      <c r="F32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="14">
         <v>219311</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="15">
         <f>17417+31519</f>
         <v>48936</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="11">
         <v>5</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="17">
+      <c r="F33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="14">
         <v>219311</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="15">
         <f>17417+31519</f>
         <v>48936</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="11">
         <v>5</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="17">
+      <c r="F34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="14">
         <v>26551</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="15">
         <f>17417+31519</f>
         <v>48936</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="11">
         <v>5</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="D35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="17">
+      <c r="F35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="14">
         <v>26551</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="15">
         <f>17417+31519</f>
         <v>48936</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="11">
         <v>5</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="C36" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="17">
+      <c r="F36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="14">
         <v>2595</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <f t="shared" ref="H36:H37" si="2">17417+31519</f>
         <v>48936</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="11">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>5</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="C37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="17">
+      <c r="F37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="14">
         <v>2595</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="15">
         <f t="shared" si="2"/>
         <v>48936</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="17">
+      <c r="D38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="15">
         <f>17417+14818</f>
         <v>32235</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="11">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="11">
         <v>5</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="17">
+      <c r="D39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="15">
         <f t="shared" ref="H39:H49" si="3">17417+14818</f>
         <v>32235</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="11">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="11">
         <v>5</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="17">
+      <c r="D40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="14">
         <v>154799</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="15">
         <f t="shared" si="3"/>
         <v>32235</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="11">
         <v>5</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="17">
+      <c r="D41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="14">
         <v>154799</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="15">
         <f t="shared" si="3"/>
         <v>32235</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <v>5</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="17">
+      <c r="C42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="15">
         <f t="shared" si="3"/>
         <v>32235</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="11">
         <v>5</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="17">
+      <c r="C43" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="15">
         <f t="shared" si="3"/>
         <v>32235</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="11">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="11">
         <v>5</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="17">
+      <c r="D44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="14">
         <v>219311</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="15">
         <f t="shared" si="3"/>
         <v>32235</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="11">
         <v>5</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="17">
+      <c r="D45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="14">
         <v>219311</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="15">
         <f t="shared" si="3"/>
         <v>32235</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="11">
         <v>5</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="17">
+      <c r="D46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="14">
         <v>26551</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="15">
         <f t="shared" si="3"/>
         <v>32235</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="11">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="11">
         <v>5</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="17">
+      <c r="D47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="14">
         <v>26551</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="15">
         <f t="shared" si="3"/>
         <v>32235</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="11">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="11">
         <v>5</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="17">
+      <c r="C48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="14">
         <v>2595</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="15">
         <f t="shared" si="3"/>
         <v>32235</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="11">
         <v>5</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="17">
+      <c r="C49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="14">
         <v>2595</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="15">
         <f t="shared" si="3"/>
         <v>32235</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="11">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="14">
-        <v>10</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="11">
+        <v>10</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="14" t="s">
+      <c r="D50" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="17">
+      <c r="F50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="15">
         <v>34833</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="11">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="14">
-        <v>10</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="11">
+        <v>10</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="14" t="s">
+      <c r="D51" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="17">
+      <c r="F51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="15">
         <v>34833</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="14">
-        <v>10</v>
-      </c>
-      <c r="C52" s="15" t="s">
+      <c r="B52" s="11">
+        <v>10</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="17">
+      <c r="F52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="14">
         <v>154799</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="15">
         <v>34833</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="11">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="14">
-        <v>10</v>
-      </c>
-      <c r="C53" s="15" t="s">
+      <c r="B53" s="11">
+        <v>10</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="14" t="s">
+      <c r="D53" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="17">
+      <c r="F53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="14">
         <v>154799</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="15">
         <v>34833</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="11">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="14">
-        <v>10</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="14" t="s">
+      <c r="B54" s="11">
+        <v>10</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="17">
+      <c r="F54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="15">
         <v>34833</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="11">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="14">
-        <v>10</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="B55" s="11">
+        <v>10</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="17">
+      <c r="F55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="15">
         <v>34833</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="11">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="14">
-        <v>10</v>
-      </c>
-      <c r="C56" s="15" t="s">
+      <c r="B56" s="11">
+        <v>10</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="D56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="17">
+      <c r="F56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="14">
         <v>219311</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="15">
         <v>34833</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="11">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="14">
-        <v>10</v>
-      </c>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="11">
+        <v>10</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="D57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="17">
+      <c r="F57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="14">
         <v>219311</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="15">
         <v>34833</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="11">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="14">
-        <v>10</v>
-      </c>
-      <c r="C58" s="15" t="s">
+      <c r="B58" s="11">
+        <v>10</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="14" t="s">
+      <c r="D58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="17">
+      <c r="F58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="14">
         <v>26551</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="15">
         <v>34833</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59" s="11">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="14">
-        <v>10</v>
-      </c>
-      <c r="C59" s="15" t="s">
+      <c r="B59" s="11">
+        <v>10</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="14" t="s">
+      <c r="D59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="17">
+      <c r="F59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="14">
         <v>26551</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="15">
         <v>34833</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="11">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="14">
-        <v>10</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="14" t="s">
+      <c r="B60" s="11">
+        <v>10</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="17">
+      <c r="F60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="14">
         <v>2595</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="15">
         <v>34833</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="11">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="14">
-        <v>10</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="14" t="s">
+      <c r="B61" s="11">
+        <v>10</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="17">
+      <c r="F61" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="14">
         <v>2595</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="15">
         <v>34833</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62" s="11">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="14">
-        <v>10</v>
-      </c>
-      <c r="C62" s="15" t="s">
+      <c r="B62" s="11">
+        <v>10</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="14" t="s">
+      <c r="D62" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="17">
+      <c r="F62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="15">
         <v>34833</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I62" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63" s="11">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="14">
-        <v>10</v>
-      </c>
-      <c r="C63" s="15" t="s">
+      <c r="B63" s="11">
+        <v>10</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="14" t="s">
+      <c r="D63" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="17">
+      <c r="F63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="15">
         <v>34833</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I63" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64" s="11">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="14">
-        <v>10</v>
-      </c>
-      <c r="C64" s="15" t="s">
+      <c r="B64" s="11">
+        <v>10</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="14" t="s">
+      <c r="D64" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="17">
+      <c r="F64" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="14">
         <v>154799</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="15">
         <v>34833</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I64" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="11">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="14">
-        <v>10</v>
-      </c>
-      <c r="C65" s="15" t="s">
+      <c r="B65" s="11">
+        <v>10</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="14" t="s">
+      <c r="D65" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="17">
+      <c r="F65" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="14">
         <v>154799</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="15">
         <v>34833</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I65" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+      <c r="A66" s="11">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="14">
-        <v>10</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="14" t="s">
+      <c r="B66" s="11">
+        <v>10</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="17">
+      <c r="F66" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="15">
         <v>34833</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I66" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+      <c r="A67" s="11">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="14">
-        <v>10</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="14" t="s">
+      <c r="B67" s="11">
+        <v>10</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="17">
+      <c r="F67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="15">
         <v>34833</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I67" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+      <c r="A68" s="11">
         <f t="shared" ref="A68:A131" si="4">A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="14">
-        <v>10</v>
-      </c>
-      <c r="C68" s="15" t="s">
+      <c r="B68" s="11">
+        <v>10</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="14" t="s">
+      <c r="D68" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="17">
+      <c r="F68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="14">
         <v>219311</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="15">
         <v>34833</v>
       </c>
-      <c r="I68" s="19">
+      <c r="I68" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+      <c r="A69" s="11">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="B69" s="14">
-        <v>10</v>
-      </c>
-      <c r="C69" s="15" t="s">
+      <c r="B69" s="11">
+        <v>10</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="14" t="s">
+      <c r="D69" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="17">
+      <c r="F69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="14">
         <v>219311</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="15">
         <v>34833</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="11">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="B70" s="14">
-        <v>10</v>
-      </c>
-      <c r="C70" s="15" t="s">
+      <c r="B70" s="11">
+        <v>10</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="14" t="s">
+      <c r="D70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="17">
+      <c r="F70" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="14">
         <v>26551</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="15">
         <v>34833</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I70" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+      <c r="A71" s="11">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="B71" s="14">
-        <v>10</v>
-      </c>
-      <c r="C71" s="15" t="s">
+      <c r="B71" s="11">
+        <v>10</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="14" t="s">
+      <c r="D71" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="17">
+      <c r="F71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="14">
         <v>26551</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="15">
         <v>34833</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I71" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+      <c r="A72" s="11">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="B72" s="14">
-        <v>10</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="14" t="s">
+      <c r="B72" s="11">
+        <v>10</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="17">
+      <c r="F72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="14">
         <v>2595</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="15">
         <v>34833</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I72" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
+      <c r="A73" s="11">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="B73" s="14">
-        <v>10</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="14" t="s">
+      <c r="B73" s="11">
+        <v>10</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="17">
+      <c r="F73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="14">
         <v>2595</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="15">
         <v>34833</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I73" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+      <c r="A74" s="11">
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
-      <c r="B74" s="14">
-        <v>10</v>
-      </c>
-      <c r="C74" s="15" t="s">
+      <c r="B74" s="11">
+        <v>10</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="14" t="s">
+      <c r="D74" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="17">
+      <c r="F74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="15">
         <f>34833+30053</f>
         <v>64886</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
+      <c r="A75" s="11">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="B75" s="14">
-        <v>10</v>
-      </c>
-      <c r="C75" s="15" t="s">
+      <c r="B75" s="11">
+        <v>10</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="14" t="s">
+      <c r="D75" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="17">
+      <c r="F75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H75" s="15">
         <f t="shared" ref="H75:H85" si="5">34833+30053</f>
         <v>64886</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I75" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+      <c r="A76" s="11">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="B76" s="14">
-        <v>10</v>
-      </c>
-      <c r="C76" s="15" t="s">
+      <c r="B76" s="11">
+        <v>10</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="14" t="s">
+      <c r="D76" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="17">
+      <c r="F76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="14">
         <v>154799</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76" s="15">
         <f t="shared" si="5"/>
         <v>64886</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I76" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
+      <c r="A77" s="11">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="B77" s="14">
-        <v>10</v>
-      </c>
-      <c r="C77" s="15" t="s">
+      <c r="B77" s="11">
+        <v>10</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="14" t="s">
+      <c r="D77" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F77" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="17">
+      <c r="F77" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="14">
         <v>154799</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H77" s="15">
         <f t="shared" si="5"/>
         <v>64886</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I77" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
+      <c r="A78" s="11">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="B78" s="14">
-        <v>10</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="14" t="s">
+      <c r="B78" s="11">
+        <v>10</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="17">
+      <c r="F78" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H78" s="15">
         <f t="shared" si="5"/>
         <v>64886</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
+      <c r="A79" s="11">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="B79" s="14">
-        <v>10</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="14" t="s">
+      <c r="B79" s="11">
+        <v>10</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F79" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="17">
+      <c r="F79" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H79" s="15">
         <f t="shared" si="5"/>
         <v>64886</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I79" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+      <c r="A80" s="11">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="B80" s="14">
-        <v>10</v>
-      </c>
-      <c r="C80" s="15" t="s">
+      <c r="B80" s="11">
+        <v>10</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="14" t="s">
+      <c r="D80" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F80" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="17">
+      <c r="F80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="14">
         <v>219311</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H80" s="15">
         <f t="shared" si="5"/>
         <v>64886</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
+      <c r="A81" s="11">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="B81" s="14">
-        <v>10</v>
-      </c>
-      <c r="C81" s="15" t="s">
+      <c r="B81" s="11">
+        <v>10</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="14" t="s">
+      <c r="D81" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="17">
+      <c r="F81" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="14">
         <v>219311</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H81" s="15">
         <f t="shared" si="5"/>
         <v>64886</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I81" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="14">
+      <c r="A82" s="11">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="B82" s="14">
-        <v>10</v>
-      </c>
-      <c r="C82" s="15" t="s">
+      <c r="B82" s="11">
+        <v>10</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="14" t="s">
+      <c r="D82" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="17">
+      <c r="F82" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="14">
         <v>26551</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H82" s="15">
         <f t="shared" si="5"/>
         <v>64886</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I82" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
+      <c r="A83" s="11">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="B83" s="14">
-        <v>10</v>
-      </c>
-      <c r="C83" s="15" t="s">
+      <c r="B83" s="11">
+        <v>10</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="14" t="s">
+      <c r="D83" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="17">
+      <c r="F83" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="14">
         <v>26551</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H83" s="15">
         <f t="shared" si="5"/>
         <v>64886</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I83" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
+      <c r="A84" s="11">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="B84" s="14">
-        <v>10</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="14" t="s">
+      <c r="B84" s="11">
+        <v>10</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F84" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="17">
+      <c r="F84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="14">
         <v>2595</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H84" s="15">
         <f t="shared" si="5"/>
         <v>64886</v>
       </c>
-      <c r="I84" s="19">
+      <c r="I84" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="14">
+      <c r="A85" s="11">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="B85" s="14">
-        <v>10</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="14" t="s">
+      <c r="B85" s="11">
+        <v>10</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="17">
+      <c r="F85" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="14">
         <v>2595</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H85" s="15">
         <f t="shared" si="5"/>
         <v>64886</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I85" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
+      <c r="A86" s="11">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="B86" s="14">
-        <v>10</v>
-      </c>
-      <c r="C86" s="15" t="s">
+      <c r="B86" s="11">
+        <v>10</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="17">
+      <c r="D86" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H86" s="15">
         <f>34833+14101</f>
         <v>48934</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I86" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="14">
+      <c r="A87" s="11">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="B87" s="14">
-        <v>10</v>
-      </c>
-      <c r="C87" s="15" t="s">
+      <c r="B87" s="11">
+        <v>10</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="17">
+      <c r="D87" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87" s="15">
         <f t="shared" ref="H87:H97" si="6">34833+14101</f>
         <v>48934</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I87" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="14">
+      <c r="A88" s="11">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="B88" s="14">
-        <v>10</v>
-      </c>
-      <c r="C88" s="15" t="s">
+      <c r="B88" s="11">
+        <v>10</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="17">
+      <c r="D88" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="14">
         <v>154799</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H88" s="15">
         <f t="shared" si="6"/>
         <v>48934</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I88" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="14">
+      <c r="A89" s="11">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="B89" s="14">
-        <v>10</v>
-      </c>
-      <c r="C89" s="15" t="s">
+      <c r="B89" s="11">
+        <v>10</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="17">
+      <c r="D89" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="14">
         <v>154799</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H89" s="15">
         <f t="shared" si="6"/>
         <v>48934</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I89" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
+      <c r="A90" s="11">
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="B90" s="14">
-        <v>10</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="17">
+      <c r="B90" s="11">
+        <v>10</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H90" s="18">
+      <c r="H90" s="15">
         <f t="shared" si="6"/>
         <v>48934</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I90" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
+      <c r="A91" s="11">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="B91" s="14">
-        <v>10</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="17">
+      <c r="B91" s="11">
+        <v>10</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H91" s="18">
+      <c r="H91" s="15">
         <f t="shared" si="6"/>
         <v>48934</v>
       </c>
-      <c r="I91" s="19">
+      <c r="I91" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
+      <c r="A92" s="11">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="B92" s="14">
-        <v>10</v>
-      </c>
-      <c r="C92" s="15" t="s">
+      <c r="B92" s="11">
+        <v>10</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="17">
+      <c r="D92" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="14">
         <v>219311</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92" s="15">
         <f t="shared" si="6"/>
         <v>48934</v>
       </c>
-      <c r="I92" s="19">
+      <c r="I92" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
+      <c r="A93" s="11">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="B93" s="14">
-        <v>10</v>
-      </c>
-      <c r="C93" s="15" t="s">
+      <c r="B93" s="11">
+        <v>10</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="17">
+      <c r="D93" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="14">
         <v>219311</v>
       </c>
-      <c r="H93" s="18">
+      <c r="H93" s="15">
         <f t="shared" si="6"/>
         <v>48934</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I93" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
+      <c r="A94" s="11">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="B94" s="14">
-        <v>10</v>
-      </c>
-      <c r="C94" s="15" t="s">
+      <c r="B94" s="11">
+        <v>10</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="17">
+      <c r="D94" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="14">
         <v>26551</v>
       </c>
-      <c r="H94" s="18">
+      <c r="H94" s="15">
         <f t="shared" si="6"/>
         <v>48934</v>
       </c>
-      <c r="I94" s="19">
+      <c r="I94" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="14">
+      <c r="A95" s="11">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="B95" s="14">
-        <v>10</v>
-      </c>
-      <c r="C95" s="15" t="s">
+      <c r="B95" s="11">
+        <v>10</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="17">
+      <c r="D95" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="14">
         <v>26551</v>
       </c>
-      <c r="H95" s="18">
+      <c r="H95" s="15">
         <f t="shared" si="6"/>
         <v>48934</v>
       </c>
-      <c r="I95" s="19">
+      <c r="I95" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="14">
+      <c r="A96" s="11">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="B96" s="14">
-        <v>10</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="17">
+      <c r="B96" s="11">
+        <v>10</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="14">
         <v>2595</v>
       </c>
-      <c r="H96" s="18">
+      <c r="H96" s="15">
         <f t="shared" si="6"/>
         <v>48934</v>
       </c>
-      <c r="I96" s="19">
+      <c r="I96" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="14">
+      <c r="A97" s="11">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="B97" s="14">
-        <v>10</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="17">
+      <c r="B97" s="11">
+        <v>10</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="14">
         <v>2595</v>
       </c>
-      <c r="H97" s="18">
+      <c r="H97" s="15">
         <f t="shared" si="6"/>
         <v>48934</v>
       </c>
-      <c r="I97" s="19">
+      <c r="I97" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="14">
+      <c r="A98" s="11">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="B98" s="14">
-        <v>15</v>
-      </c>
-      <c r="C98" s="15" t="s">
+      <c r="B98" s="11">
+        <v>15</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="14" t="s">
+      <c r="D98" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="17">
+      <c r="F98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H98" s="18">
+      <c r="H98" s="15">
         <v>52250</v>
       </c>
-      <c r="I98" s="19">
+      <c r="I98" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="14">
+      <c r="A99" s="11">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="B99" s="14">
-        <v>15</v>
-      </c>
-      <c r="C99" s="15" t="s">
+      <c r="B99" s="11">
+        <v>15</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="14" t="s">
+      <c r="D99" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="17">
+      <c r="F99" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H99" s="18">
+      <c r="H99" s="15">
         <v>52250</v>
       </c>
-      <c r="I99" s="19">
+      <c r="I99" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="14">
+      <c r="A100" s="11">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="B100" s="14">
-        <v>15</v>
-      </c>
-      <c r="C100" s="15" t="s">
+      <c r="B100" s="11">
+        <v>15</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="14" t="s">
+      <c r="D100" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="17">
+      <c r="F100" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="14">
         <v>154799</v>
       </c>
-      <c r="H100" s="18">
+      <c r="H100" s="15">
         <v>52250</v>
       </c>
-      <c r="I100" s="19">
+      <c r="I100" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="14">
+      <c r="A101" s="11">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="B101" s="14">
-        <v>15</v>
-      </c>
-      <c r="C101" s="15" t="s">
+      <c r="B101" s="11">
+        <v>15</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="14" t="s">
+      <c r="D101" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="17">
+      <c r="F101" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="14">
         <v>154799</v>
       </c>
-      <c r="H101" s="18">
+      <c r="H101" s="15">
         <v>52250</v>
       </c>
-      <c r="I101" s="19">
+      <c r="I101" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="14">
+      <c r="A102" s="11">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
-      <c r="B102" s="14">
-        <v>15</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="14" t="s">
+      <c r="B102" s="11">
+        <v>15</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="17">
+      <c r="F102" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H102" s="18">
+      <c r="H102" s="15">
         <v>52250</v>
       </c>
-      <c r="I102" s="19">
+      <c r="I102" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="14">
+      <c r="A103" s="11">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="B103" s="14">
-        <v>15</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="14" t="s">
+      <c r="B103" s="11">
+        <v>15</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="17">
+      <c r="F103" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H103" s="18">
+      <c r="H103" s="15">
         <v>52250</v>
       </c>
-      <c r="I103" s="19">
+      <c r="I103" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="14">
+      <c r="A104" s="11">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="B104" s="14">
-        <v>15</v>
-      </c>
-      <c r="C104" s="15" t="s">
+      <c r="B104" s="11">
+        <v>15</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" s="14" t="s">
+      <c r="D104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="17">
+      <c r="F104" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="14">
         <v>219311</v>
       </c>
-      <c r="H104" s="18">
+      <c r="H104" s="15">
         <v>52250</v>
       </c>
-      <c r="I104" s="19">
+      <c r="I104" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="14">
+      <c r="A105" s="11">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="B105" s="14">
-        <v>15</v>
-      </c>
-      <c r="C105" s="15" t="s">
+      <c r="B105" s="11">
+        <v>15</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" s="14" t="s">
+      <c r="D105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F105" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="17">
+      <c r="F105" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="14">
         <v>219311</v>
       </c>
-      <c r="H105" s="18">
+      <c r="H105" s="15">
         <v>52250</v>
       </c>
-      <c r="I105" s="19">
+      <c r="I105" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="14">
+      <c r="A106" s="11">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="B106" s="14">
-        <v>15</v>
-      </c>
-      <c r="C106" s="15" t="s">
+      <c r="B106" s="11">
+        <v>15</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D106" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" s="14" t="s">
+      <c r="D106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="17">
+      <c r="F106" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="14">
         <v>26551</v>
       </c>
-      <c r="H106" s="18">
+      <c r="H106" s="15">
         <v>52250</v>
       </c>
-      <c r="I106" s="19">
+      <c r="I106" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="14">
+      <c r="A107" s="11">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="B107" s="14">
-        <v>15</v>
-      </c>
-      <c r="C107" s="15" t="s">
+      <c r="B107" s="11">
+        <v>15</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D107" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E107" s="14" t="s">
+      <c r="D107" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="17">
+      <c r="F107" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="14">
         <v>26551</v>
       </c>
-      <c r="H107" s="18">
+      <c r="H107" s="15">
         <v>52250</v>
       </c>
-      <c r="I107" s="19">
+      <c r="I107" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="14">
+      <c r="A108" s="11">
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
-      <c r="B108" s="14">
-        <v>15</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108" s="14" t="s">
+      <c r="B108" s="11">
+        <v>15</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="17">
+      <c r="F108" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="14">
         <v>2595</v>
       </c>
-      <c r="H108" s="18">
+      <c r="H108" s="15">
         <v>52250</v>
       </c>
-      <c r="I108" s="19">
+      <c r="I108" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="14">
+      <c r="A109" s="11">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="B109" s="14">
-        <v>15</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" s="14" t="s">
+      <c r="B109" s="11">
+        <v>15</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="17">
+      <c r="F109" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="14">
         <v>2595</v>
       </c>
-      <c r="H109" s="18">
+      <c r="H109" s="15">
         <v>52250</v>
       </c>
-      <c r="I109" s="19">
+      <c r="I109" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="14">
+      <c r="A110" s="11">
         <f t="shared" si="4"/>
         <v>109</v>
       </c>
-      <c r="B110" s="14">
-        <v>15</v>
-      </c>
-      <c r="C110" s="15" t="s">
+      <c r="B110" s="11">
+        <v>15</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D110" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="14" t="s">
+      <c r="D110" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F110" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="17">
+      <c r="F110" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H110" s="18">
+      <c r="H110" s="15">
         <v>52250</v>
       </c>
-      <c r="I110" s="19">
+      <c r="I110" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
+      <c r="A111" s="11">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="B111" s="14">
-        <v>15</v>
-      </c>
-      <c r="C111" s="15" t="s">
+      <c r="B111" s="11">
+        <v>15</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="14" t="s">
+      <c r="D111" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F111" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="17">
+      <c r="F111" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H111" s="18">
+      <c r="H111" s="15">
         <v>52250</v>
       </c>
-      <c r="I111" s="19">
+      <c r="I111" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="14">
+      <c r="A112" s="11">
         <f t="shared" si="4"/>
         <v>111</v>
       </c>
-      <c r="B112" s="14">
-        <v>15</v>
-      </c>
-      <c r="C112" s="15" t="s">
+      <c r="B112" s="11">
+        <v>15</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="14" t="s">
+      <c r="D112" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F112" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="17">
+      <c r="F112" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="14">
         <v>154799</v>
       </c>
-      <c r="H112" s="18">
+      <c r="H112" s="15">
         <v>52250</v>
       </c>
-      <c r="I112" s="19">
+      <c r="I112" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="14">
+      <c r="A113" s="11">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="B113" s="14">
-        <v>15</v>
-      </c>
-      <c r="C113" s="15" t="s">
+      <c r="B113" s="11">
+        <v>15</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D113" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="14" t="s">
+      <c r="D113" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="17">
+      <c r="F113" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="14">
         <v>154799</v>
       </c>
-      <c r="H113" s="18">
+      <c r="H113" s="15">
         <v>52250</v>
       </c>
-      <c r="I113" s="19">
+      <c r="I113" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="14">
+      <c r="A114" s="11">
         <f t="shared" si="4"/>
         <v>113</v>
       </c>
-      <c r="B114" s="14">
-        <v>15</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="14" t="s">
+      <c r="B114" s="11">
+        <v>15</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F114" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="17">
+      <c r="F114" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H114" s="18">
+      <c r="H114" s="15">
         <v>52250</v>
       </c>
-      <c r="I114" s="19">
+      <c r="I114" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="14">
+      <c r="A115" s="11">
         <f t="shared" si="4"/>
         <v>114</v>
       </c>
-      <c r="B115" s="14">
-        <v>15</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="14" t="s">
+      <c r="B115" s="11">
+        <v>15</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F115" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="17">
+      <c r="F115" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H115" s="18">
+      <c r="H115" s="15">
         <v>52250</v>
       </c>
-      <c r="I115" s="19">
+      <c r="I115" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="14">
+      <c r="A116" s="11">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="B116" s="14">
-        <v>15</v>
-      </c>
-      <c r="C116" s="15" t="s">
+      <c r="B116" s="11">
+        <v>15</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D116" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" s="14" t="s">
+      <c r="D116" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F116" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="17">
+      <c r="F116" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="14">
         <v>219311</v>
       </c>
-      <c r="H116" s="18">
+      <c r="H116" s="15">
         <v>52250</v>
       </c>
-      <c r="I116" s="19">
+      <c r="I116" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="14">
+      <c r="A117" s="11">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="B117" s="14">
-        <v>15</v>
-      </c>
-      <c r="C117" s="15" t="s">
+      <c r="B117" s="11">
+        <v>15</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" s="14" t="s">
+      <c r="D117" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F117" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="17">
+      <c r="F117" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="14">
         <v>219311</v>
       </c>
-      <c r="H117" s="18">
+      <c r="H117" s="15">
         <v>52250</v>
       </c>
-      <c r="I117" s="19">
+      <c r="I117" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="14">
+      <c r="A118" s="11">
         <f t="shared" si="4"/>
         <v>117</v>
       </c>
-      <c r="B118" s="14">
-        <v>15</v>
-      </c>
-      <c r="C118" s="15" t="s">
+      <c r="B118" s="11">
+        <v>15</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D118" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118" s="14" t="s">
+      <c r="D118" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F118" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="17">
+      <c r="F118" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="14">
         <v>26551</v>
       </c>
-      <c r="H118" s="18">
+      <c r="H118" s="15">
         <v>52250</v>
       </c>
-      <c r="I118" s="19">
+      <c r="I118" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="14">
+      <c r="A119" s="11">
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="B119" s="14">
-        <v>15</v>
-      </c>
-      <c r="C119" s="15" t="s">
+      <c r="B119" s="11">
+        <v>15</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D119" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119" s="14" t="s">
+      <c r="D119" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F119" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="17">
+      <c r="F119" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="14">
         <v>26551</v>
       </c>
-      <c r="H119" s="18">
+      <c r="H119" s="15">
         <v>52250</v>
       </c>
-      <c r="I119" s="19">
+      <c r="I119" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="14">
+      <c r="A120" s="11">
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="B120" s="14">
-        <v>15</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E120" s="14" t="s">
+      <c r="B120" s="11">
+        <v>15</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F120" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="17">
+      <c r="F120" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="14">
         <v>2595</v>
       </c>
-      <c r="H120" s="18">
+      <c r="H120" s="15">
         <v>52250</v>
       </c>
-      <c r="I120" s="19">
+      <c r="I120" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="14">
+      <c r="A121" s="11">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="B121" s="14">
-        <v>15</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121" s="14" t="s">
+      <c r="B121" s="11">
+        <v>15</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F121" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="17">
+      <c r="F121" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="14">
         <v>2595</v>
       </c>
-      <c r="H121" s="18">
+      <c r="H121" s="15">
         <v>52250</v>
       </c>
-      <c r="I121" s="19">
+      <c r="I121" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="14">
+      <c r="A122" s="11">
         <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="B122" s="14">
-        <v>15</v>
-      </c>
-      <c r="C122" s="15" t="s">
+      <c r="B122" s="11">
+        <v>15</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="14" t="s">
+      <c r="D122" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F122" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="17">
+      <c r="F122" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H122" s="18">
+      <c r="H122" s="15">
         <f>52250+28587</f>
         <v>80837</v>
       </c>
-      <c r="I122" s="19">
+      <c r="I122" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
+      <c r="A123" s="11">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="B123" s="14">
-        <v>15</v>
-      </c>
-      <c r="C123" s="15" t="s">
+      <c r="B123" s="11">
+        <v>15</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" s="14" t="s">
+      <c r="D123" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="17">
+      <c r="F123" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H123" s="18">
+      <c r="H123" s="15">
         <f t="shared" ref="H123:H133" si="7">52250+28587</f>
         <v>80837</v>
       </c>
-      <c r="I123" s="19">
+      <c r="I123" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="14">
+      <c r="A124" s="11">
         <f t="shared" si="4"/>
         <v>123</v>
       </c>
-      <c r="B124" s="14">
-        <v>15</v>
-      </c>
-      <c r="C124" s="15" t="s">
+      <c r="B124" s="11">
+        <v>15</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="14" t="s">
+      <c r="D124" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F124" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="17">
+      <c r="F124" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="14">
         <v>154799</v>
       </c>
-      <c r="H124" s="18">
+      <c r="H124" s="15">
         <f t="shared" si="7"/>
         <v>80837</v>
       </c>
-      <c r="I124" s="19">
+      <c r="I124" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="14">
+      <c r="A125" s="11">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="B125" s="14">
-        <v>15</v>
-      </c>
-      <c r="C125" s="15" t="s">
+      <c r="B125" s="11">
+        <v>15</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="14" t="s">
+      <c r="D125" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F125" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="17">
+      <c r="F125" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="14">
         <v>154799</v>
       </c>
-      <c r="H125" s="18">
+      <c r="H125" s="15">
         <f t="shared" si="7"/>
         <v>80837</v>
       </c>
-      <c r="I125" s="19">
+      <c r="I125" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="14">
+      <c r="A126" s="11">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="B126" s="14">
-        <v>15</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="14" t="s">
+      <c r="B126" s="11">
+        <v>15</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F126" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="17">
+      <c r="F126" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H126" s="18">
+      <c r="H126" s="15">
         <f t="shared" si="7"/>
         <v>80837</v>
       </c>
-      <c r="I126" s="19">
+      <c r="I126" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="14">
+      <c r="A127" s="11">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="B127" s="14">
-        <v>15</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="14" t="s">
+      <c r="B127" s="11">
+        <v>15</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F127" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" s="17">
+      <c r="F127" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H127" s="18">
+      <c r="H127" s="15">
         <f t="shared" si="7"/>
         <v>80837</v>
       </c>
-      <c r="I127" s="19">
+      <c r="I127" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="14">
+      <c r="A128" s="11">
         <f t="shared" si="4"/>
         <v>127</v>
       </c>
-      <c r="B128" s="14">
-        <v>15</v>
-      </c>
-      <c r="C128" s="15" t="s">
+      <c r="B128" s="11">
+        <v>15</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D128" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E128" s="14" t="s">
+      <c r="D128" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F128" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="17">
+      <c r="F128" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="14">
         <v>219311</v>
       </c>
-      <c r="H128" s="18">
+      <c r="H128" s="15">
         <f t="shared" si="7"/>
         <v>80837</v>
       </c>
-      <c r="I128" s="19">
+      <c r="I128" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="14">
+      <c r="A129" s="11">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
-      <c r="B129" s="14">
-        <v>15</v>
-      </c>
-      <c r="C129" s="15" t="s">
+      <c r="B129" s="11">
+        <v>15</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E129" s="14" t="s">
+      <c r="D129" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F129" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" s="17">
+      <c r="F129" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="14">
         <v>219311</v>
       </c>
-      <c r="H129" s="18">
+      <c r="H129" s="15">
         <f t="shared" si="7"/>
         <v>80837</v>
       </c>
-      <c r="I129" s="19">
+      <c r="I129" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="14">
+      <c r="A130" s="11">
         <f t="shared" si="4"/>
         <v>129</v>
       </c>
-      <c r="B130" s="14">
-        <v>15</v>
-      </c>
-      <c r="C130" s="15" t="s">
+      <c r="B130" s="11">
+        <v>15</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D130" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E130" s="14" t="s">
+      <c r="D130" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F130" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="17">
+      <c r="F130" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="14">
         <v>26551</v>
       </c>
-      <c r="H130" s="18">
+      <c r="H130" s="15">
         <f t="shared" si="7"/>
         <v>80837</v>
       </c>
-      <c r="I130" s="19">
+      <c r="I130" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="14">
+      <c r="A131" s="11">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="B131" s="14">
-        <v>15</v>
-      </c>
-      <c r="C131" s="15" t="s">
+      <c r="B131" s="11">
+        <v>15</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131" s="14" t="s">
+      <c r="D131" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="17">
+      <c r="F131" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="14">
         <v>26551</v>
       </c>
-      <c r="H131" s="18">
+      <c r="H131" s="15">
         <f t="shared" si="7"/>
         <v>80837</v>
       </c>
-      <c r="I131" s="19">
+      <c r="I131" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="14">
+      <c r="A132" s="11">
         <f t="shared" ref="A132:A193" si="8">A131+1</f>
         <v>131</v>
       </c>
-      <c r="B132" s="14">
-        <v>15</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="14" t="s">
+      <c r="B132" s="11">
+        <v>15</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F132" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="17">
+      <c r="F132" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="14">
         <v>2595</v>
       </c>
-      <c r="H132" s="18">
+      <c r="H132" s="15">
         <f t="shared" si="7"/>
         <v>80837</v>
       </c>
-      <c r="I132" s="19">
+      <c r="I132" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="14">
+      <c r="A133" s="11">
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
-      <c r="B133" s="14">
-        <v>15</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="14" t="s">
+      <c r="B133" s="11">
+        <v>15</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F133" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" s="17">
+      <c r="F133" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" s="14">
         <v>2595</v>
       </c>
-      <c r="H133" s="18">
+      <c r="H133" s="15">
         <f t="shared" si="7"/>
         <v>80837</v>
       </c>
-      <c r="I133" s="19">
+      <c r="I133" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="14">
+      <c r="A134" s="11">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
-      <c r="B134" s="14">
-        <v>15</v>
-      </c>
-      <c r="C134" s="15" t="s">
+      <c r="B134" s="11">
+        <v>15</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D134" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="17">
+      <c r="D134" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H134" s="18">
+      <c r="H134" s="15">
         <f>52250+13384</f>
         <v>65634</v>
       </c>
-      <c r="I134" s="19">
+      <c r="I134" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="14">
+      <c r="A135" s="11">
         <f t="shared" si="8"/>
         <v>134</v>
       </c>
-      <c r="B135" s="14">
-        <v>15</v>
-      </c>
-      <c r="C135" s="15" t="s">
+      <c r="B135" s="11">
+        <v>15</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" s="17">
+      <c r="D135" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H135" s="18">
+      <c r="H135" s="15">
         <f t="shared" ref="H135:H145" si="9">52250+13384</f>
         <v>65634</v>
       </c>
-      <c r="I135" s="19">
+      <c r="I135" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="14">
+      <c r="A136" s="11">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
-      <c r="B136" s="14">
-        <v>15</v>
-      </c>
-      <c r="C136" s="15" t="s">
+      <c r="B136" s="11">
+        <v>15</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D136" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="17">
+      <c r="D136" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="14">
         <v>154799</v>
       </c>
-      <c r="H136" s="18">
+      <c r="H136" s="15">
         <f t="shared" si="9"/>
         <v>65634</v>
       </c>
-      <c r="I136" s="19">
+      <c r="I136" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="14">
+      <c r="A137" s="11">
         <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="B137" s="14">
-        <v>15</v>
-      </c>
-      <c r="C137" s="15" t="s">
+      <c r="B137" s="11">
+        <v>15</v>
+      </c>
+      <c r="C137" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F137" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="17">
+      <c r="D137" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="14">
         <v>154799</v>
       </c>
-      <c r="H137" s="18">
+      <c r="H137" s="15">
         <f t="shared" si="9"/>
         <v>65634</v>
       </c>
-      <c r="I137" s="19">
+      <c r="I137" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="14">
+      <c r="A138" s="11">
         <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="B138" s="14">
-        <v>15</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F138" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="17">
+      <c r="B138" s="11">
+        <v>15</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H138" s="18">
+      <c r="H138" s="15">
         <f t="shared" si="9"/>
         <v>65634</v>
       </c>
-      <c r="I138" s="19">
+      <c r="I138" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="14">
+      <c r="A139" s="11">
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="B139" s="14">
-        <v>15</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" s="17">
+      <c r="B139" s="11">
+        <v>15</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H139" s="18">
+      <c r="H139" s="15">
         <f t="shared" si="9"/>
         <v>65634</v>
       </c>
-      <c r="I139" s="19">
+      <c r="I139" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="14">
+      <c r="A140" s="11">
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="B140" s="14">
-        <v>15</v>
-      </c>
-      <c r="C140" s="15" t="s">
+      <c r="B140" s="11">
+        <v>15</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D140" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="17">
+      <c r="D140" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="14">
         <v>219311</v>
       </c>
-      <c r="H140" s="18">
+      <c r="H140" s="15">
         <f t="shared" si="9"/>
         <v>65634</v>
       </c>
-      <c r="I140" s="19">
+      <c r="I140" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="14">
+      <c r="A141" s="11">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="B141" s="14">
-        <v>15</v>
-      </c>
-      <c r="C141" s="15" t="s">
+      <c r="B141" s="11">
+        <v>15</v>
+      </c>
+      <c r="C141" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="17">
+      <c r="D141" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" s="14">
         <v>219311</v>
       </c>
-      <c r="H141" s="18">
+      <c r="H141" s="15">
         <f t="shared" si="9"/>
         <v>65634</v>
       </c>
-      <c r="I141" s="19">
+      <c r="I141" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="14">
+      <c r="A142" s="11">
         <f t="shared" si="8"/>
         <v>141</v>
       </c>
-      <c r="B142" s="14">
-        <v>15</v>
-      </c>
-      <c r="C142" s="15" t="s">
+      <c r="B142" s="11">
+        <v>15</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D142" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="17">
+      <c r="D142" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="14">
         <v>26551</v>
       </c>
-      <c r="H142" s="18">
+      <c r="H142" s="15">
         <f t="shared" si="9"/>
         <v>65634</v>
       </c>
-      <c r="I142" s="19">
+      <c r="I142" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="14">
+      <c r="A143" s="11">
         <f t="shared" si="8"/>
         <v>142</v>
       </c>
-      <c r="B143" s="14">
-        <v>15</v>
-      </c>
-      <c r="C143" s="15" t="s">
+      <c r="B143" s="11">
+        <v>15</v>
+      </c>
+      <c r="C143" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D143" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" s="17">
+      <c r="D143" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" s="14">
         <v>26551</v>
       </c>
-      <c r="H143" s="18">
+      <c r="H143" s="15">
         <f t="shared" si="9"/>
         <v>65634</v>
       </c>
-      <c r="I143" s="19">
+      <c r="I143" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="14">
+      <c r="A144" s="11">
         <f t="shared" si="8"/>
         <v>143</v>
       </c>
-      <c r="B144" s="14">
-        <v>15</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="17">
+      <c r="B144" s="11">
+        <v>15</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="14">
         <v>2595</v>
       </c>
-      <c r="H144" s="18">
+      <c r="H144" s="15">
         <f t="shared" si="9"/>
         <v>65634</v>
       </c>
-      <c r="I144" s="19">
+      <c r="I144" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="14">
+      <c r="A145" s="11">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="B145" s="14">
-        <v>15</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" s="17">
+      <c r="B145" s="11">
+        <v>15</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="14">
         <v>2595</v>
       </c>
-      <c r="H145" s="18">
+      <c r="H145" s="15">
         <f t="shared" si="9"/>
         <v>65634</v>
       </c>
-      <c r="I145" s="19">
+      <c r="I145" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="14">
+      <c r="A146" s="11">
         <f t="shared" si="8"/>
         <v>145</v>
       </c>
-      <c r="B146" s="14">
-        <v>20</v>
-      </c>
-      <c r="C146" s="15" t="s">
+      <c r="B146" s="11">
+        <v>20</v>
+      </c>
+      <c r="C146" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D146" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="14" t="s">
+      <c r="D146" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F146" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="17">
+      <c r="F146" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H146" s="18">
+      <c r="H146" s="15">
         <v>69677</v>
       </c>
-      <c r="I146" s="19">
+      <c r="I146" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="14">
+      <c r="A147" s="11">
         <f t="shared" si="8"/>
         <v>146</v>
       </c>
-      <c r="B147" s="14">
-        <v>20</v>
-      </c>
-      <c r="C147" s="15" t="s">
+      <c r="B147" s="11">
+        <v>20</v>
+      </c>
+      <c r="C147" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D147" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="14" t="s">
+      <c r="D147" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="17">
+      <c r="F147" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H147" s="18">
+      <c r="H147" s="15">
         <v>69677</v>
       </c>
-      <c r="I147" s="19">
+      <c r="I147" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="14">
+      <c r="A148" s="11">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="B148" s="14">
-        <v>20</v>
-      </c>
-      <c r="C148" s="15" t="s">
+      <c r="B148" s="11">
+        <v>20</v>
+      </c>
+      <c r="C148" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D148" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148" s="14" t="s">
+      <c r="D148" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F148" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" s="17">
+      <c r="F148" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="14">
         <v>154799</v>
       </c>
-      <c r="H148" s="18">
+      <c r="H148" s="15">
         <v>69677</v>
       </c>
-      <c r="I148" s="19">
+      <c r="I148" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="14">
+      <c r="A149" s="11">
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="B149" s="14">
-        <v>20</v>
-      </c>
-      <c r="C149" s="15" t="s">
+      <c r="B149" s="11">
+        <v>20</v>
+      </c>
+      <c r="C149" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D149" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" s="14" t="s">
+      <c r="D149" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="17">
+      <c r="F149" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="14">
         <v>154799</v>
       </c>
-      <c r="H149" s="18">
+      <c r="H149" s="15">
         <v>69677</v>
       </c>
-      <c r="I149" s="19">
+      <c r="I149" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="14">
+      <c r="A150" s="11">
         <f t="shared" si="8"/>
         <v>149</v>
       </c>
-      <c r="B150" s="14">
-        <v>20</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="14" t="s">
+      <c r="B150" s="11">
+        <v>20</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F150" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" s="17">
+      <c r="F150" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H150" s="18">
+      <c r="H150" s="15">
         <v>69677</v>
       </c>
-      <c r="I150" s="19">
+      <c r="I150" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="14">
+      <c r="A151" s="11">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="B151" s="14">
-        <v>20</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="14" t="s">
+      <c r="B151" s="11">
+        <v>20</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F151" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" s="17">
+      <c r="F151" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H151" s="18">
+      <c r="H151" s="15">
         <v>69677</v>
       </c>
-      <c r="I151" s="19">
+      <c r="I151" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="14">
+      <c r="A152" s="11">
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="B152" s="14">
-        <v>20</v>
-      </c>
-      <c r="C152" s="15" t="s">
+      <c r="B152" s="11">
+        <v>20</v>
+      </c>
+      <c r="C152" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D152" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152" s="14" t="s">
+      <c r="D152" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F152" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="17">
+      <c r="F152" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="14">
         <v>219311</v>
       </c>
-      <c r="H152" s="18">
+      <c r="H152" s="15">
         <v>69677</v>
       </c>
-      <c r="I152" s="19">
+      <c r="I152" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="14">
+      <c r="A153" s="11">
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="B153" s="14">
-        <v>20</v>
-      </c>
-      <c r="C153" s="15" t="s">
+      <c r="B153" s="11">
+        <v>20</v>
+      </c>
+      <c r="C153" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D153" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E153" s="14" t="s">
+      <c r="D153" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F153" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" s="17">
+      <c r="F153" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="14">
         <v>219311</v>
       </c>
-      <c r="H153" s="18">
+      <c r="H153" s="15">
         <v>69677</v>
       </c>
-      <c r="I153" s="19">
+      <c r="I153" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="14">
+      <c r="A154" s="11">
         <f t="shared" si="8"/>
         <v>153</v>
       </c>
-      <c r="B154" s="14">
-        <v>20</v>
-      </c>
-      <c r="C154" s="15" t="s">
+      <c r="B154" s="11">
+        <v>20</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D154" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E154" s="14" t="s">
+      <c r="D154" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F154" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="17">
+      <c r="F154" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="14">
         <v>26551</v>
       </c>
-      <c r="H154" s="18">
+      <c r="H154" s="15">
         <v>69677</v>
       </c>
-      <c r="I154" s="19">
+      <c r="I154" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="14">
+      <c r="A155" s="11">
         <f t="shared" si="8"/>
         <v>154</v>
       </c>
-      <c r="B155" s="14">
-        <v>20</v>
-      </c>
-      <c r="C155" s="15" t="s">
+      <c r="B155" s="11">
+        <v>20</v>
+      </c>
+      <c r="C155" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D155" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155" s="14" t="s">
+      <c r="D155" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F155" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" s="17">
+      <c r="F155" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="14">
         <v>26551</v>
       </c>
-      <c r="H155" s="18">
+      <c r="H155" s="15">
         <v>69677</v>
       </c>
-      <c r="I155" s="19">
+      <c r="I155" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="14">
+      <c r="A156" s="11">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="B156" s="14">
-        <v>20</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156" s="14" t="s">
+      <c r="B156" s="11">
+        <v>20</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F156" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="17">
+      <c r="F156" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="14">
         <v>2595</v>
       </c>
-      <c r="H156" s="18">
+      <c r="H156" s="15">
         <v>69677</v>
       </c>
-      <c r="I156" s="19">
+      <c r="I156" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="14">
+      <c r="A157" s="11">
         <f t="shared" si="8"/>
         <v>156</v>
       </c>
-      <c r="B157" s="14">
-        <v>20</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E157" s="14" t="s">
+      <c r="B157" s="11">
+        <v>20</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F157" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" s="17">
+      <c r="F157" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" s="14">
         <v>2595</v>
       </c>
-      <c r="H157" s="18">
+      <c r="H157" s="15">
         <v>69677</v>
       </c>
-      <c r="I157" s="19">
+      <c r="I157" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="14">
+      <c r="A158" s="11">
         <f t="shared" si="8"/>
         <v>157</v>
       </c>
-      <c r="B158" s="14">
-        <v>20</v>
-      </c>
-      <c r="C158" s="15" t="s">
+      <c r="B158" s="11">
+        <v>20</v>
+      </c>
+      <c r="C158" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" s="14" t="s">
+      <c r="D158" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F158" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="17">
+      <c r="F158" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H158" s="18">
+      <c r="H158" s="15">
         <v>69677</v>
       </c>
-      <c r="I158" s="19">
+      <c r="I158" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="14">
+      <c r="A159" s="11">
         <f t="shared" si="8"/>
         <v>158</v>
       </c>
-      <c r="B159" s="14">
-        <v>20</v>
-      </c>
-      <c r="C159" s="15" t="s">
+      <c r="B159" s="11">
+        <v>20</v>
+      </c>
+      <c r="C159" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E159" s="14" t="s">
+      <c r="D159" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F159" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" s="17">
+      <c r="F159" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H159" s="18">
+      <c r="H159" s="15">
         <v>69677</v>
       </c>
-      <c r="I159" s="19">
+      <c r="I159" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="14">
+      <c r="A160" s="11">
         <f t="shared" si="8"/>
         <v>159</v>
       </c>
-      <c r="B160" s="14">
-        <v>20</v>
-      </c>
-      <c r="C160" s="15" t="s">
+      <c r="B160" s="11">
+        <v>20</v>
+      </c>
+      <c r="C160" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D160" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" s="14" t="s">
+      <c r="D160" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F160" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" s="17">
+      <c r="F160" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="14">
         <v>154799</v>
       </c>
-      <c r="H160" s="18">
+      <c r="H160" s="15">
         <v>69677</v>
       </c>
-      <c r="I160" s="19">
+      <c r="I160" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="14">
+      <c r="A161" s="11">
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="B161" s="14">
-        <v>20</v>
-      </c>
-      <c r="C161" s="15" t="s">
+      <c r="B161" s="11">
+        <v>20</v>
+      </c>
+      <c r="C161" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D161" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="14" t="s">
+      <c r="D161" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F161" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" s="17">
+      <c r="F161" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="14">
         <v>154799</v>
       </c>
-      <c r="H161" s="18">
+      <c r="H161" s="15">
         <v>69677</v>
       </c>
-      <c r="I161" s="19">
+      <c r="I161" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="14">
+      <c r="A162" s="11">
         <f t="shared" si="8"/>
         <v>161</v>
       </c>
-      <c r="B162" s="14">
-        <v>20</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="14" t="s">
+      <c r="B162" s="11">
+        <v>20</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F162" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="17">
+      <c r="F162" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H162" s="18">
+      <c r="H162" s="15">
         <v>69677</v>
       </c>
-      <c r="I162" s="19">
+      <c r="I162" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="14">
+      <c r="A163" s="11">
         <f t="shared" si="8"/>
         <v>162</v>
       </c>
-      <c r="B163" s="14">
-        <v>20</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" s="14" t="s">
+      <c r="B163" s="11">
+        <v>20</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F163" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" s="17">
+      <c r="F163" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H163" s="18">
+      <c r="H163" s="15">
         <v>69677</v>
       </c>
-      <c r="I163" s="19">
+      <c r="I163" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="14">
+      <c r="A164" s="11">
         <f t="shared" si="8"/>
         <v>163</v>
       </c>
-      <c r="B164" s="14">
-        <v>20</v>
-      </c>
-      <c r="C164" s="15" t="s">
+      <c r="B164" s="11">
+        <v>20</v>
+      </c>
+      <c r="C164" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D164" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E164" s="14" t="s">
+      <c r="D164" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F164" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="17">
+      <c r="F164" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="14">
         <v>219311</v>
       </c>
-      <c r="H164" s="18">
+      <c r="H164" s="15">
         <v>69677</v>
       </c>
-      <c r="I164" s="19">
+      <c r="I164" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="14">
+      <c r="A165" s="11">
         <f t="shared" si="8"/>
         <v>164</v>
       </c>
-      <c r="B165" s="14">
-        <v>20</v>
-      </c>
-      <c r="C165" s="15" t="s">
+      <c r="B165" s="11">
+        <v>20</v>
+      </c>
+      <c r="C165" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E165" s="14" t="s">
+      <c r="D165" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F165" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" s="17">
+      <c r="F165" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="14">
         <v>219311</v>
       </c>
-      <c r="H165" s="18">
+      <c r="H165" s="15">
         <v>69677</v>
       </c>
-      <c r="I165" s="19">
+      <c r="I165" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="14">
+      <c r="A166" s="11">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="B166" s="14">
-        <v>20</v>
-      </c>
-      <c r="C166" s="15" t="s">
+      <c r="B166" s="11">
+        <v>20</v>
+      </c>
+      <c r="C166" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D166" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E166" s="14" t="s">
+      <c r="D166" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F166" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="17">
+      <c r="F166" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="14">
         <v>26551</v>
       </c>
-      <c r="H166" s="18">
+      <c r="H166" s="15">
         <v>69677</v>
       </c>
-      <c r="I166" s="19">
+      <c r="I166" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="14">
+      <c r="A167" s="11">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="B167" s="14">
-        <v>20</v>
-      </c>
-      <c r="C167" s="15" t="s">
+      <c r="B167" s="11">
+        <v>20</v>
+      </c>
+      <c r="C167" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D167" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E167" s="14" t="s">
+      <c r="D167" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F167" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" s="17">
+      <c r="F167" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" s="14">
         <v>26551</v>
       </c>
-      <c r="H167" s="18">
+      <c r="H167" s="15">
         <v>69677</v>
       </c>
-      <c r="I167" s="19">
+      <c r="I167" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="14">
+      <c r="A168" s="11">
         <f t="shared" si="8"/>
         <v>167</v>
       </c>
-      <c r="B168" s="14">
-        <v>20</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E168" s="14" t="s">
+      <c r="B168" s="11">
+        <v>20</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F168" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="17">
+      <c r="F168" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="14">
         <v>2595</v>
       </c>
-      <c r="H168" s="18">
+      <c r="H168" s="15">
         <v>69677</v>
       </c>
-      <c r="I168" s="19">
+      <c r="I168" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="14">
+      <c r="A169" s="11">
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="B169" s="14">
-        <v>20</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E169" s="14" t="s">
+      <c r="B169" s="11">
+        <v>20</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F169" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" s="17">
+      <c r="F169" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" s="14">
         <v>2595</v>
       </c>
-      <c r="H169" s="18">
+      <c r="H169" s="15">
         <v>69677</v>
       </c>
-      <c r="I169" s="19">
+      <c r="I169" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="14">
+      <c r="A170" s="11">
         <f t="shared" si="8"/>
         <v>169</v>
       </c>
-      <c r="B170" s="14">
-        <v>20</v>
-      </c>
-      <c r="C170" s="15" t="s">
+      <c r="B170" s="11">
+        <v>20</v>
+      </c>
+      <c r="C170" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" s="14" t="s">
+      <c r="D170" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F170" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" s="17">
+      <c r="F170" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H170" s="18">
+      <c r="H170" s="15">
         <f>69677+27121</f>
         <v>96798</v>
       </c>
-      <c r="I170" s="19">
+      <c r="I170" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="14">
+      <c r="A171" s="11">
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
-      <c r="B171" s="14">
-        <v>20</v>
-      </c>
-      <c r="C171" s="15" t="s">
+      <c r="B171" s="11">
+        <v>20</v>
+      </c>
+      <c r="C171" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D171" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" s="14" t="s">
+      <c r="D171" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F171" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" s="17">
+      <c r="F171" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H171" s="18">
+      <c r="H171" s="15">
         <f t="shared" ref="H171:H181" si="10">69677+27121</f>
         <v>96798</v>
       </c>
-      <c r="I171" s="19">
+      <c r="I171" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="14">
+      <c r="A172" s="11">
         <f t="shared" si="8"/>
         <v>171</v>
       </c>
-      <c r="B172" s="14">
-        <v>20</v>
-      </c>
-      <c r="C172" s="15" t="s">
+      <c r="B172" s="11">
+        <v>20</v>
+      </c>
+      <c r="C172" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E172" s="14" t="s">
+      <c r="D172" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F172" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" s="17">
+      <c r="F172" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="14">
         <v>154799</v>
       </c>
-      <c r="H172" s="18">
+      <c r="H172" s="15">
         <f t="shared" si="10"/>
         <v>96798</v>
       </c>
-      <c r="I172" s="19">
+      <c r="I172" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="14">
+      <c r="A173" s="11">
         <f t="shared" si="8"/>
         <v>172</v>
       </c>
-      <c r="B173" s="14">
-        <v>20</v>
-      </c>
-      <c r="C173" s="15" t="s">
+      <c r="B173" s="11">
+        <v>20</v>
+      </c>
+      <c r="C173" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D173" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" s="14" t="s">
+      <c r="D173" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F173" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" s="17">
+      <c r="F173" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" s="14">
         <v>154799</v>
       </c>
-      <c r="H173" s="18">
+      <c r="H173" s="15">
         <f t="shared" si="10"/>
         <v>96798</v>
       </c>
-      <c r="I173" s="19">
+      <c r="I173" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="14">
+      <c r="A174" s="11">
         <f t="shared" si="8"/>
         <v>173</v>
       </c>
-      <c r="B174" s="14">
-        <v>20</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D174" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E174" s="14" t="s">
+      <c r="B174" s="11">
+        <v>20</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F174" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" s="17">
+      <c r="F174" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H174" s="18">
+      <c r="H174" s="15">
         <f t="shared" si="10"/>
         <v>96798</v>
       </c>
-      <c r="I174" s="19">
+      <c r="I174" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="14">
+      <c r="A175" s="11">
         <f t="shared" si="8"/>
         <v>174</v>
       </c>
-      <c r="B175" s="14">
-        <v>20</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" s="14" t="s">
+      <c r="B175" s="11">
+        <v>20</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F175" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G175" s="17">
+      <c r="F175" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H175" s="18">
+      <c r="H175" s="15">
         <f t="shared" si="10"/>
         <v>96798</v>
       </c>
-      <c r="I175" s="19">
+      <c r="I175" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="14">
+      <c r="A176" s="11">
         <f t="shared" si="8"/>
         <v>175</v>
       </c>
-      <c r="B176" s="14">
-        <v>20</v>
-      </c>
-      <c r="C176" s="15" t="s">
+      <c r="B176" s="11">
+        <v>20</v>
+      </c>
+      <c r="C176" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D176" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E176" s="14" t="s">
+      <c r="D176" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F176" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="17">
+      <c r="F176" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="14">
         <v>219311</v>
       </c>
-      <c r="H176" s="18">
+      <c r="H176" s="15">
         <f t="shared" si="10"/>
         <v>96798</v>
       </c>
-      <c r="I176" s="19">
+      <c r="I176" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="14">
+      <c r="A177" s="11">
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="B177" s="14">
-        <v>20</v>
-      </c>
-      <c r="C177" s="15" t="s">
+      <c r="B177" s="11">
+        <v>20</v>
+      </c>
+      <c r="C177" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D177" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E177" s="14" t="s">
+      <c r="D177" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F177" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G177" s="17">
+      <c r="F177" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="14">
         <v>219311</v>
       </c>
-      <c r="H177" s="18">
+      <c r="H177" s="15">
         <f t="shared" si="10"/>
         <v>96798</v>
       </c>
-      <c r="I177" s="19">
+      <c r="I177" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="14">
+      <c r="A178" s="11">
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="B178" s="14">
-        <v>20</v>
-      </c>
-      <c r="C178" s="15" t="s">
+      <c r="B178" s="11">
+        <v>20</v>
+      </c>
+      <c r="C178" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D178" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E178" s="14" t="s">
+      <c r="D178" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F178" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" s="17">
+      <c r="F178" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="14">
         <v>26551</v>
       </c>
-      <c r="H178" s="18">
+      <c r="H178" s="15">
         <f t="shared" si="10"/>
         <v>96798</v>
       </c>
-      <c r="I178" s="19">
+      <c r="I178" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="14">
+      <c r="A179" s="11">
         <f t="shared" si="8"/>
         <v>178</v>
       </c>
-      <c r="B179" s="14">
-        <v>20</v>
-      </c>
-      <c r="C179" s="15" t="s">
+      <c r="B179" s="11">
+        <v>20</v>
+      </c>
+      <c r="C179" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D179" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E179" s="14" t="s">
+      <c r="D179" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F179" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" s="17">
+      <c r="F179" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="14">
         <v>26551</v>
       </c>
-      <c r="H179" s="18">
+      <c r="H179" s="15">
         <f t="shared" si="10"/>
         <v>96798</v>
       </c>
-      <c r="I179" s="19">
+      <c r="I179" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="14">
+      <c r="A180" s="11">
         <f t="shared" si="8"/>
         <v>179</v>
       </c>
-      <c r="B180" s="14">
-        <v>20</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E180" s="14" t="s">
+      <c r="B180" s="11">
+        <v>20</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F180" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" s="17">
+      <c r="F180" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="14">
         <v>2595</v>
       </c>
-      <c r="H180" s="18">
+      <c r="H180" s="15">
         <f t="shared" si="10"/>
         <v>96798</v>
       </c>
-      <c r="I180" s="19">
+      <c r="I180" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="14">
+      <c r="A181" s="11">
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="B181" s="14">
-        <v>20</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E181" s="14" t="s">
+      <c r="B181" s="11">
+        <v>20</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F181" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" s="17">
+      <c r="F181" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="14">
         <v>2595</v>
       </c>
-      <c r="H181" s="18">
+      <c r="H181" s="15">
         <f t="shared" si="10"/>
         <v>96798</v>
       </c>
-      <c r="I181" s="19">
+      <c r="I181" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="14">
+      <c r="A182" s="11">
         <f t="shared" si="8"/>
         <v>181</v>
       </c>
-      <c r="B182" s="14">
-        <v>20</v>
-      </c>
-      <c r="C182" s="15" t="s">
+      <c r="B182" s="11">
+        <v>20</v>
+      </c>
+      <c r="C182" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D182" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F182" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" s="17">
+      <c r="D182" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H182" s="18">
+      <c r="H182" s="15">
         <f>69677+12667</f>
         <v>82344</v>
       </c>
-      <c r="I182" s="19">
+      <c r="I182" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="14">
+      <c r="A183" s="11">
         <f t="shared" si="8"/>
         <v>182</v>
       </c>
-      <c r="B183" s="14">
-        <v>20</v>
-      </c>
-      <c r="C183" s="15" t="s">
+      <c r="B183" s="11">
+        <v>20</v>
+      </c>
+      <c r="C183" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D183" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E183" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F183" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G183" s="17">
+      <c r="D183" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" s="14">
         <f>309598</f>
         <v>309598</v>
       </c>
-      <c r="H183" s="18">
+      <c r="H183" s="15">
         <f t="shared" ref="H183:H186" si="11">69677+12667</f>
         <v>82344</v>
       </c>
-      <c r="I183" s="19">
+      <c r="I183" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="14">
+      <c r="A184" s="11">
         <f t="shared" si="8"/>
         <v>183</v>
       </c>
-      <c r="B184" s="14">
-        <v>20</v>
-      </c>
-      <c r="C184" s="15" t="s">
+      <c r="B184" s="11">
+        <v>20</v>
+      </c>
+      <c r="C184" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D184" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F184" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" s="17">
+      <c r="D184" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="14">
         <v>154799</v>
       </c>
-      <c r="H184" s="18">
+      <c r="H184" s="15">
         <f t="shared" si="11"/>
         <v>82344</v>
       </c>
-      <c r="I184" s="19">
+      <c r="I184" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="14">
+      <c r="A185" s="11">
         <f t="shared" si="8"/>
         <v>184</v>
       </c>
-      <c r="B185" s="14">
-        <v>20</v>
-      </c>
-      <c r="C185" s="15" t="s">
+      <c r="B185" s="11">
+        <v>20</v>
+      </c>
+      <c r="C185" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D185" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E185" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F185" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G185" s="17">
+      <c r="D185" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" s="14">
         <v>154799</v>
       </c>
-      <c r="H185" s="18">
+      <c r="H185" s="15">
         <f t="shared" si="11"/>
         <v>82344</v>
       </c>
-      <c r="I185" s="19">
+      <c r="I185" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="14">
+      <c r="A186" s="11">
         <f t="shared" si="8"/>
         <v>185</v>
       </c>
-      <c r="B186" s="14">
-        <v>20</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E186" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F186" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" s="17">
+      <c r="B186" s="11">
+        <v>20</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H186" s="18">
+      <c r="H186" s="15">
         <f t="shared" si="11"/>
         <v>82344</v>
       </c>
-      <c r="I186" s="19">
+      <c r="I186" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="14">
+      <c r="A187" s="11">
         <f t="shared" si="8"/>
         <v>186</v>
       </c>
-      <c r="B187" s="14">
-        <v>20</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E187" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F187" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" s="17">
+      <c r="B187" s="11">
+        <v>20</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" s="14">
         <f>3616</f>
         <v>3616</v>
       </c>
-      <c r="H187" s="18">
+      <c r="H187" s="15">
         <f>69677+12667</f>
         <v>82344</v>
       </c>
-      <c r="I187" s="19">
+      <c r="I187" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="14">
+      <c r="A188" s="11">
         <f t="shared" si="8"/>
         <v>187</v>
       </c>
-      <c r="B188" s="14">
-        <v>20</v>
-      </c>
-      <c r="C188" s="15" t="s">
+      <c r="B188" s="11">
+        <v>20</v>
+      </c>
+      <c r="C188" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E188" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F188" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="17">
+      <c r="D188" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="14">
         <v>219311</v>
       </c>
-      <c r="H188" s="18">
+      <c r="H188" s="15">
         <f t="shared" ref="H188:H193" si="12">69677+12667</f>
         <v>82344</v>
       </c>
-      <c r="I188" s="19">
+      <c r="I188" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="14">
+      <c r="A189" s="11">
         <f t="shared" si="8"/>
         <v>188</v>
       </c>
-      <c r="B189" s="14">
-        <v>20</v>
-      </c>
-      <c r="C189" s="15" t="s">
+      <c r="B189" s="11">
+        <v>20</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D189" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E189" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F189" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" s="17">
+      <c r="D189" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" s="14">
         <v>219311</v>
       </c>
-      <c r="H189" s="18">
+      <c r="H189" s="15">
         <f t="shared" si="12"/>
         <v>82344</v>
       </c>
-      <c r="I189" s="19">
+      <c r="I189" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="14">
+      <c r="A190" s="11">
         <f t="shared" si="8"/>
         <v>189</v>
       </c>
-      <c r="B190" s="14">
-        <v>20</v>
-      </c>
-      <c r="C190" s="15" t="s">
+      <c r="B190" s="11">
+        <v>20</v>
+      </c>
+      <c r="C190" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D190" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E190" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F190" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" s="17">
+      <c r="D190" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="14">
         <v>26551</v>
       </c>
-      <c r="H190" s="18">
+      <c r="H190" s="15">
         <f t="shared" si="12"/>
         <v>82344</v>
       </c>
-      <c r="I190" s="19">
+      <c r="I190" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="14">
+      <c r="A191" s="11">
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="B191" s="14">
-        <v>20</v>
-      </c>
-      <c r="C191" s="15" t="s">
+      <c r="B191" s="11">
+        <v>20</v>
+      </c>
+      <c r="C191" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D191" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E191" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F191" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" s="17">
+      <c r="D191" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" s="14">
         <v>26551</v>
       </c>
-      <c r="H191" s="18">
+      <c r="H191" s="15">
         <f t="shared" si="12"/>
         <v>82344</v>
       </c>
-      <c r="I191" s="19">
+      <c r="I191" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="14">
+      <c r="A192" s="11">
         <f t="shared" si="8"/>
         <v>191</v>
       </c>
-      <c r="B192" s="14">
-        <v>20</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E192" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F192" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="17">
+      <c r="B192" s="11">
+        <v>20</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="14">
         <v>2595</v>
       </c>
-      <c r="H192" s="18">
+      <c r="H192" s="15">
         <f t="shared" si="12"/>
         <v>82344</v>
       </c>
-      <c r="I192" s="19">
+      <c r="I192" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="14">
+      <c r="A193" s="11">
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="B193" s="14">
-        <v>20</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D193" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E193" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F193" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" s="23">
+      <c r="B193" s="11">
+        <v>20</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F193" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" s="20">
         <v>2595</v>
       </c>
-      <c r="H193" s="24">
+      <c r="H193" s="21">
         <f t="shared" si="12"/>
         <v>82344</v>
       </c>
-      <c r="I193" s="25">
+      <c r="I193" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6945,12 +7027,190 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F222E5FA-6EF1-439E-B4E5-C313891F9DB1}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" s="43" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0.19949999999999998</v>
+      </c>
+      <c r="B2" s="23">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="G2" s="24">
+        <v>1.8136363636363633</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1.1083333333333332</v>
+      </c>
+      <c r="I2" s="24">
+        <v>0.58676470588235285</v>
+      </c>
+      <c r="J2" s="24">
+        <v>0.43369565217391298</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0.62343749999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>0.189</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.216</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G3" s="24">
+        <v>1.7181818181818183</v>
+      </c>
+      <c r="H3" s="24">
+        <v>1.05</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0.55588235294117638</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0.41086956521739126</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0.59062499999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1.6227272727272726</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0.38804347826086955</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.55781249999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.192</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1.5272727272727273</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.49411764705882355</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0.36521739130434783</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ag_data.xlsx
+++ b/data/ag_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/Scenario Analysis Agriculture GHG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9143B857-80F6-40AD-B8CD-511B1D6C69F9}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D60EB47A-9B0B-4F7A-BA37-D463050DB8A8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Input" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
     <sheet name="Fertilizer Displacement Table" sheetId="3" r:id="rId3"/>
+    <sheet name="Discounts to Volume Table" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="55">
   <si>
     <t>Case Number</t>
   </si>
@@ -162,6 +163,48 @@
   <si>
     <t>Ratio to UAN</t>
   </si>
+  <si>
+    <t>Waste Diversion</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Landfill</t>
+  </si>
+  <si>
+    <t>regulatory additionality</t>
+  </si>
+  <si>
+    <t>Stockpile</t>
+  </si>
+  <si>
+    <t>Incineration</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Compost</t>
+  </si>
+  <si>
+    <t>Land Use</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Leakage</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -542,6 +585,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -549,7 +623,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -640,6 +714,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1054,7 +1151,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -7029,7 +7126,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -7213,4 +7310,171 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46A4060-5135-400D-B9B9-8A57ADBEE3EA}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="51">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="54">
+        <v>0</v>
+      </c>
+      <c r="D3" s="55">
+        <v>0</v>
+      </c>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0</v>
+      </c>
+      <c r="D4" s="55">
+        <v>0</v>
+      </c>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0</v>
+      </c>
+      <c r="D7" s="55">
+        <v>0</v>
+      </c>
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/ag_data.xlsx
+++ b/data/ag_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/Scenario Analysis Agriculture GHG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D60EB47A-9B0B-4F7A-BA37-D463050DB8A8}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4C2005-4D5A-4119-8CD2-1F4CD01F0F55}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Input" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Fertilizer Displacement Table" sheetId="3" r:id="rId3"/>
-    <sheet name="Discounts to Volume Table" sheetId="4" r:id="rId4"/>
+    <sheet name="Pricing Table" sheetId="5" r:id="rId3"/>
+    <sheet name="Fertilizer Displacement Table" sheetId="3" r:id="rId4"/>
+    <sheet name="Discounts to Volume Table" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="63">
   <si>
     <t>Case Number</t>
   </si>
@@ -205,15 +206,41 @@
   <si>
     <t>N2O</t>
   </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>N2O (industrial)</t>
+  </si>
+  <si>
+    <t>Gold Average</t>
+  </si>
+  <si>
+    <t>Verra Average</t>
+  </si>
+  <si>
+    <t>Offset Discount</t>
+  </si>
+  <si>
+    <t>Transaction Cost</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Volume</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -617,13 +644,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -673,12 +701,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -699,21 +721,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,9 +744,38 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
@@ -1087,16 +1123,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="35" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="35"/>
-    <col min="4" max="4" width="13.140625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15" style="35" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="35"/>
-    <col min="7" max="7" width="15.42578125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="29" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="29"/>
+    <col min="4" max="4" width="13.140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15" style="29" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="29"/>
+    <col min="7" max="7" width="15.42578125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1114,30 +1150,30 @@
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="35">
-        <v>10</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="29">
+        <v>10</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="29">
         <v>100000</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="30">
         <v>0.5</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="31">
         <v>0.1</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="32">
         <v>25</v>
       </c>
     </row>
@@ -1151,7 +1187,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1168,7 +1204,7 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="32" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,13 +1214,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -7122,189 +7158,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F222E5FA-6EF1-439E-B4E5-C313891F9DB1}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E95648-8BEC-4E9E-BC95-5FC06BCB4F47}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="43" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>0.19949999999999998</v>
-      </c>
-      <c r="B2" s="23">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0.22799999999999998</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="F2" s="24">
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="G2" s="24">
-        <v>1.8136363636363633</v>
-      </c>
-      <c r="H2" s="24">
-        <v>1.1083333333333332</v>
-      </c>
-      <c r="I2" s="24">
-        <v>0.58676470588235285</v>
-      </c>
-      <c r="J2" s="24">
-        <v>0.43369565217391298</v>
-      </c>
-      <c r="K2" s="25">
-        <v>0.62343749999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>0.189</v>
-      </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0.216</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="24">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G3" s="24">
-        <v>1.7181818181818183</v>
-      </c>
-      <c r="H3" s="24">
-        <v>1.05</v>
-      </c>
-      <c r="I3" s="24">
-        <v>0.55588235294117638</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0.41086956521739126</v>
-      </c>
-      <c r="K3" s="25">
-        <v>0.59062499999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>0.17849999999999999</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0.85</v>
-      </c>
-      <c r="G4" s="24">
-        <v>1.6227272727272726</v>
-      </c>
-      <c r="H4" s="24">
-        <v>0.9916666666666667</v>
-      </c>
-      <c r="I4" s="24">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J4" s="24">
-        <v>0.38804347826086955</v>
-      </c>
-      <c r="K4" s="25">
-        <v>0.55781249999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="B5" s="26">
-        <v>0</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0.192</v>
-      </c>
-      <c r="E5" s="26">
+    <row r="1" spans="1:9" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62">
+        <v>2.5</v>
+      </c>
+      <c r="B2" s="63">
+        <v>4.37</v>
+      </c>
+      <c r="C2" s="63">
+        <v>1.9</v>
+      </c>
+      <c r="D2" s="64">
+        <v>282300000</v>
+      </c>
+      <c r="E2" s="65">
+        <v>100400000</v>
+      </c>
+      <c r="F2" s="63">
+        <v>5.27</v>
+      </c>
+      <c r="G2" s="63">
+        <v>3.84</v>
+      </c>
+      <c r="H2" s="66">
         <v>0.2</v>
       </c>
-      <c r="F5" s="27">
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="G5" s="27">
-        <v>1.5272727272727273</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0.49411764705882355</v>
-      </c>
-      <c r="J5" s="27">
-        <v>0.36521739130434783</v>
-      </c>
-      <c r="K5" s="28">
-        <v>0.52500000000000002</v>
+      <c r="I2" s="67">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7313,164 +7240,359 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F222E5FA-6EF1-439E-B4E5-C313891F9DB1}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="53" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="54">
+        <v>0.19949999999999998</v>
+      </c>
+      <c r="B2" s="54">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54">
+        <v>0</v>
+      </c>
+      <c r="D2" s="54">
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="E2" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="55">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="G2" s="55">
+        <v>1.8136363636363633</v>
+      </c>
+      <c r="H2" s="55">
+        <v>1.1083333333333332</v>
+      </c>
+      <c r="I2" s="55">
+        <v>0.58676470588235285</v>
+      </c>
+      <c r="J2" s="55">
+        <v>0.43369565217391298</v>
+      </c>
+      <c r="K2" s="56">
+        <v>0.62343749999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="54">
+        <v>0.189</v>
+      </c>
+      <c r="B3" s="54">
+        <v>0</v>
+      </c>
+      <c r="C3" s="54">
+        <v>0</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0.216</v>
+      </c>
+      <c r="E3" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="55">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G3" s="55">
+        <v>1.7181818181818183</v>
+      </c>
+      <c r="H3" s="55">
+        <v>1.05</v>
+      </c>
+      <c r="I3" s="55">
+        <v>0.55588235294117638</v>
+      </c>
+      <c r="J3" s="55">
+        <v>0.41086956521739126</v>
+      </c>
+      <c r="K3" s="56">
+        <v>0.59062499999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="B4" s="54">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E4" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="55">
+        <v>0.85</v>
+      </c>
+      <c r="G4" s="55">
+        <v>1.6227272727272726</v>
+      </c>
+      <c r="H4" s="55">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="I4" s="55">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J4" s="55">
+        <v>0.38804347826086955</v>
+      </c>
+      <c r="K4" s="56">
+        <v>0.55781249999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="B5" s="57">
+        <v>0</v>
+      </c>
+      <c r="C5" s="57">
+        <v>0</v>
+      </c>
+      <c r="D5" s="57">
+        <v>0.192</v>
+      </c>
+      <c r="E5" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="58">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="G5" s="58">
+        <v>1.5272727272727273</v>
+      </c>
+      <c r="H5" s="58">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="I5" s="58">
+        <v>0.49411764705882355</v>
+      </c>
+      <c r="J5" s="58">
+        <v>0.36521739130434783</v>
+      </c>
+      <c r="K5" s="59">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46A4060-5135-400D-B9B9-8A57ADBEE3EA}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="39">
         <v>0.8</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="40">
         <v>0.6</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="54">
-        <v>0</v>
-      </c>
-      <c r="D3" s="55">
-        <v>0</v>
-      </c>
-      <c r="E3" s="52"/>
+      <c r="C3" s="43">
+        <v>0</v>
+      </c>
+      <c r="D3" s="44">
+        <v>0</v>
+      </c>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="54">
-        <v>0</v>
-      </c>
-      <c r="D4" s="55">
-        <v>0</v>
-      </c>
-      <c r="E4" s="52"/>
+      <c r="C4" s="43">
+        <v>0</v>
+      </c>
+      <c r="D4" s="44">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="43">
         <v>0.8</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="44">
         <v>0.6</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="43">
         <v>0.2</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="44">
         <v>0.2</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="54">
-        <v>0</v>
-      </c>
-      <c r="D7" s="55">
-        <v>0</v>
-      </c>
-      <c r="E7" s="52"/>
+      <c r="C7" s="43">
+        <v>0</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0</v>
+      </c>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="39">
         <v>0.5</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="40">
         <v>0.2</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="38" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="48">
         <v>0.5</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="49">
         <v>0.2</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="47" t="s">
         <v>53</v>
       </c>
     </row>

--- a/data/ag_data.xlsx
+++ b/data/ag_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/Scenario Analysis Agriculture GHG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4C2005-4D5A-4119-8CD2-1F4CD01F0F55}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED15D765-BC11-41F1-87BF-A13487AF515D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Input" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
     <sheet name="Pricing Table" sheetId="5" r:id="rId3"/>
-    <sheet name="Fertilizer Displacement Table" sheetId="3" r:id="rId4"/>
+    <sheet name="Nutriant Table" sheetId="3" r:id="rId4"/>
     <sheet name="Discounts to Volume Table" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="59">
   <si>
     <t>Case Number</t>
   </si>
@@ -147,24 +147,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Ratio to AS</t>
-  </si>
-  <si>
-    <t>Ratio to MAP</t>
-  </si>
-  <si>
-    <t>Ratio to DAP</t>
-  </si>
-  <si>
-    <t>Ratio to AN</t>
-  </si>
-  <si>
-    <t>Ratio to Urea</t>
-  </si>
-  <si>
-    <t>Ratio to UAN</t>
-  </si>
-  <si>
     <t>Waste Diversion</t>
   </si>
   <si>
@@ -229,6 +211,12 @@
   </si>
   <si>
     <t>Total Volume</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>DAP</t>
   </si>
 </sst>
 </file>
@@ -651,7 +639,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -744,9 +732,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -757,7 +742,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -772,6 +756,12 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7159,9 +7149,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E95648-8BEC-4E9E-BC95-5FC06BCB4F47}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -7176,61 +7167,61 @@
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="E1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" s="34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62">
+      <c r="A2" s="60">
         <v>2.5</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="61">
         <v>4.37</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="61">
         <v>1.9</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="62">
         <v>282300000</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="63">
         <v>100400000</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="61">
         <v>5.27</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="61">
         <v>3.84</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="64">
         <v>0.2</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="65">
         <v>1</v>
       </c>
     </row>
@@ -7242,189 +7233,203 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F222E5FA-6EF1-439E-B4E5-C313891F9DB1}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="17.28515625" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="53" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:12" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="G1" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="67">
+        <v>5</v>
+      </c>
+      <c r="B2" s="53">
         <v>0.19949999999999998</v>
       </c>
-      <c r="B2" s="54">
-        <v>0</v>
-      </c>
-      <c r="C2" s="54">
-        <v>0</v>
-      </c>
-      <c r="D2" s="54">
+      <c r="C2" s="53">
+        <v>0</v>
+      </c>
+      <c r="D2" s="53">
+        <v>0</v>
+      </c>
+      <c r="E2" s="53">
         <v>0.22799999999999998</v>
       </c>
-      <c r="E2" s="54">
+      <c r="F2" s="53">
         <v>0.05</v>
       </c>
-      <c r="F2" s="55">
+      <c r="G2" s="66">
         <v>0.95000000000000007</v>
       </c>
-      <c r="G2" s="55">
+      <c r="H2" s="66">
         <v>1.8136363636363633</v>
       </c>
-      <c r="H2" s="55">
+      <c r="I2" s="66">
         <v>1.1083333333333332</v>
       </c>
-      <c r="I2" s="55">
+      <c r="J2" s="66">
         <v>0.58676470588235285</v>
       </c>
-      <c r="J2" s="55">
+      <c r="K2" s="66">
         <v>0.43369565217391298</v>
       </c>
-      <c r="K2" s="56">
+      <c r="L2" s="54">
         <v>0.62343749999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="67">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53">
         <v>0.189</v>
       </c>
-      <c r="B3" s="54">
-        <v>0</v>
-      </c>
-      <c r="C3" s="54">
-        <v>0</v>
-      </c>
-      <c r="D3" s="54">
+      <c r="C3" s="53">
+        <v>0</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0</v>
+      </c>
+      <c r="E3" s="53">
         <v>0.216</v>
       </c>
-      <c r="E3" s="54">
+      <c r="F3" s="53">
         <v>0.1</v>
       </c>
-      <c r="F3" s="55">
+      <c r="G3" s="66">
         <v>0.89999999999999991</v>
       </c>
-      <c r="G3" s="55">
+      <c r="H3" s="66">
         <v>1.7181818181818183</v>
       </c>
-      <c r="H3" s="55">
+      <c r="I3" s="66">
         <v>1.05</v>
       </c>
-      <c r="I3" s="55">
+      <c r="J3" s="66">
         <v>0.55588235294117638</v>
       </c>
-      <c r="J3" s="55">
+      <c r="K3" s="66">
         <v>0.41086956521739126</v>
       </c>
-      <c r="K3" s="56">
+      <c r="L3" s="54">
         <v>0.59062499999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="67">
+        <v>15</v>
+      </c>
+      <c r="B4" s="53">
         <v>0.17849999999999999</v>
       </c>
-      <c r="B4" s="54">
-        <v>0</v>
-      </c>
-      <c r="C4" s="54">
-        <v>0</v>
-      </c>
-      <c r="D4" s="54">
+      <c r="C4" s="53">
+        <v>0</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0</v>
+      </c>
+      <c r="E4" s="53">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E4" s="54">
+      <c r="F4" s="53">
         <v>0.15</v>
       </c>
-      <c r="F4" s="55">
+      <c r="G4" s="66">
         <v>0.85</v>
       </c>
-      <c r="G4" s="55">
+      <c r="H4" s="66">
         <v>1.6227272727272726</v>
       </c>
-      <c r="H4" s="55">
+      <c r="I4" s="66">
         <v>0.9916666666666667</v>
       </c>
-      <c r="I4" s="55">
+      <c r="J4" s="66">
         <v>0.52500000000000002</v>
       </c>
-      <c r="J4" s="55">
+      <c r="K4" s="66">
         <v>0.38804347826086955</v>
       </c>
-      <c r="K4" s="56">
+      <c r="L4" s="54">
         <v>0.55781249999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57">
+    <row r="5" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68">
+        <v>20</v>
+      </c>
+      <c r="B5" s="55">
         <v>0.16800000000000001</v>
       </c>
-      <c r="B5" s="57">
-        <v>0</v>
-      </c>
-      <c r="C5" s="57">
-        <v>0</v>
-      </c>
-      <c r="D5" s="57">
+      <c r="C5" s="55">
+        <v>0</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0</v>
+      </c>
+      <c r="E5" s="55">
         <v>0.192</v>
       </c>
-      <c r="E5" s="57">
+      <c r="F5" s="55">
         <v>0.2</v>
       </c>
-      <c r="F5" s="58">
+      <c r="G5" s="56">
         <v>0.80000000000000016</v>
       </c>
-      <c r="G5" s="58">
+      <c r="H5" s="56">
         <v>1.5272727272727273</v>
       </c>
-      <c r="H5" s="58">
+      <c r="I5" s="56">
         <v>0.93333333333333335</v>
       </c>
-      <c r="I5" s="58">
+      <c r="J5" s="56">
         <v>0.49411764705882355</v>
       </c>
-      <c r="J5" s="58">
+      <c r="K5" s="56">
         <v>0.36521739130434783</v>
       </c>
-      <c r="K5" s="59">
+      <c r="L5" s="57">
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -7451,10 +7456,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>12</v>
@@ -7463,15 +7468,15 @@
         <v>13</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C2" s="39">
         <v>0.8</v>
@@ -7480,15 +7485,15 @@
         <v>0.6</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3" s="43">
         <v>0</v>
@@ -7500,10 +7505,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C4" s="43">
         <v>0</v>
@@ -7515,10 +7520,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="43">
         <v>0.8</v>
@@ -7527,7 +7532,7 @@
         <v>0.6</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7535,7 +7540,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" s="43">
         <v>0.2</v>
@@ -7544,7 +7549,7 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7552,7 +7557,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" s="43">
         <v>0</v>
@@ -7564,10 +7569,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C8" s="39">
         <v>0.5</v>
@@ -7576,15 +7581,15 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C9" s="48">
         <v>0.5</v>
@@ -7593,7 +7598,7 @@
         <v>0.2</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/ag_data.xlsx
+++ b/data/ag_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/Scenario Analysis Agriculture GHG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51F07028-EF57-413C-A6D9-D0ACAB48837A}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BEDC07B-FB54-424E-BF75-6E8C2C570D16}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Input" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="57">
   <si>
     <t>Product Made</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>Incineration</t>
-  </si>
-  <si>
-    <t>AG</t>
   </si>
   <si>
     <t>Compost</t>
@@ -1171,7 +1168,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -6392,31 +6389,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="58" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6489,10 +6486,10 @@
         <v>10</v>
       </c>
       <c r="H1" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="49" t="s">
         <v>56</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>57</v>
       </c>
       <c r="J1" s="49" t="s">
         <v>17</v>
@@ -6666,8 +6663,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6743,7 +6740,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>38</v>
@@ -6763,7 +6760,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="42">
         <v>0.2</v>
@@ -6792,10 +6789,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>45</v>
       </c>
       <c r="C8" s="38">
         <v>0.5</v>
@@ -6804,15 +6801,15 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="47">
         <v>0.5</v>
@@ -6821,7 +6818,7 @@
         <v>0.2</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/ag_data.xlsx
+++ b/data/ag_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/Scenario Analysis Agriculture GHG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BEDC07B-FB54-424E-BF75-6E8C2C570D16}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5167FAB-55E9-4E5A-9270-9CA341858157}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Input" sheetId="2" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>N2O Present</t>
   </si>
   <si>
-    <t>Emissions Permit Price</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>DAP</t>
+  </si>
+  <si>
+    <t>Emissions Permit Price</t>
   </si>
 </sst>
 </file>
@@ -697,9 +697,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,19 +735,22 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,13 +1148,13 @@
       <c r="D2" s="28">
         <v>100000</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="59">
         <v>0.5</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="60">
         <v>0.1</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="61">
         <v>25</v>
       </c>
     </row>
@@ -6372,8 +6372,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6387,61 +6387,61 @@
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="58" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59">
+      <c r="A2" s="62">
         <v>2.5</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="63">
         <v>4.37</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="63">
         <v>1.9</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="64">
         <v>282300000</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="65">
         <v>100400000</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="63">
         <v>5.27</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="63">
         <v>3.84</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="66">
         <v>0.2</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="67">
         <v>1</v>
       </c>
     </row>
@@ -6455,7 +6455,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6463,193 +6465,193 @@
     <col min="2" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:12" s="48" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="66">
+      <c r="A2" s="56">
         <v>5</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="49">
         <v>0.19949999999999998</v>
       </c>
-      <c r="C2" s="52">
-        <v>0</v>
-      </c>
-      <c r="D2" s="52">
-        <v>0</v>
-      </c>
-      <c r="E2" s="52">
+      <c r="C2" s="49">
+        <v>0</v>
+      </c>
+      <c r="D2" s="49">
+        <v>0</v>
+      </c>
+      <c r="E2" s="49">
         <v>0.22799999999999998</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="49">
         <v>0.05</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="55">
         <v>0.95000000000000007</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="55">
         <v>1.8136363636363633</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="55">
         <v>1.1083333333333332</v>
       </c>
-      <c r="J2" s="65">
+      <c r="J2" s="55">
         <v>0.58676470588235285</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K2" s="55">
         <v>0.43369565217391298</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="50">
         <v>0.62343749999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52">
+      <c r="A3" s="28">
+        <v>10</v>
+      </c>
+      <c r="B3" s="49">
         <v>0.189</v>
       </c>
-      <c r="C3" s="52">
-        <v>0</v>
-      </c>
-      <c r="D3" s="52">
-        <v>0</v>
-      </c>
-      <c r="E3" s="52">
+      <c r="C3" s="49">
+        <v>0</v>
+      </c>
+      <c r="D3" s="49">
+        <v>0</v>
+      </c>
+      <c r="E3" s="49">
         <v>0.216</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="49">
         <v>0.1</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="55">
         <v>0.89999999999999991</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="55">
         <v>1.7181818181818183</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="55">
         <v>1.05</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="55">
         <v>0.55588235294117638</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="55">
         <v>0.41086956521739126</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="50">
         <v>0.59062499999999996</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="66">
-        <v>15</v>
-      </c>
-      <c r="B4" s="52">
+      <c r="A4" s="28">
+        <v>15</v>
+      </c>
+      <c r="B4" s="49">
         <v>0.17849999999999999</v>
       </c>
-      <c r="C4" s="52">
-        <v>0</v>
-      </c>
-      <c r="D4" s="52">
-        <v>0</v>
-      </c>
-      <c r="E4" s="52">
+      <c r="C4" s="49">
+        <v>0</v>
+      </c>
+      <c r="D4" s="49">
+        <v>0</v>
+      </c>
+      <c r="E4" s="49">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="49">
         <v>0.15</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="55">
         <v>0.85</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="55">
         <v>1.6227272727272726</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="55">
         <v>0.9916666666666667</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="55">
         <v>0.52500000000000002</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="55">
         <v>0.38804347826086955</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="50">
         <v>0.55781249999999993</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67">
+      <c r="A5" s="57">
         <v>20</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="51">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C5" s="54">
-        <v>0</v>
-      </c>
-      <c r="D5" s="54">
-        <v>0</v>
-      </c>
-      <c r="E5" s="54">
+      <c r="C5" s="51">
+        <v>0</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="51">
         <v>0.192</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="51">
         <v>0.2</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="52">
         <v>0.80000000000000016</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="52">
         <v>1.5272727272727273</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="52">
         <v>0.93333333333333335</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="52">
         <v>0.49411764705882355</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="52">
         <v>0.36521739130434783</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="53">
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -6663,7 +6665,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -6675,150 +6677,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="35" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="38">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0</v>
+      </c>
+      <c r="D3" s="40">
+        <v>0</v>
+      </c>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="40">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="39">
         <v>0.8</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D5" s="40">
         <v>0.6</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="E5" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="42">
-        <v>0</v>
-      </c>
-      <c r="D3" s="43">
-        <v>0</v>
-      </c>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="42">
-        <v>0</v>
-      </c>
-      <c r="D4" s="43">
-        <v>0</v>
-      </c>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="43">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="40" t="s">
+      <c r="C7" s="39">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="42">
+      <c r="B8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="36">
         <v>0.2</v>
       </c>
-      <c r="D6" s="43">
+      <c r="E8" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="45">
         <v>0.2</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="42">
-        <v>0</v>
-      </c>
-      <c r="D7" s="43">
-        <v>0</v>
-      </c>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="E9" s="43" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="39">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="48">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/ag_data.xlsx
+++ b/data/ag_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/Scenario Analysis Agriculture GHG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5167FAB-55E9-4E5A-9270-9CA341858157}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C1D312-75E4-4216-92A5-DC5C5A680239}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Input" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="55">
   <si>
     <t>Product Made</t>
   </si>
@@ -108,19 +108,10 @@
     <t>Fee Allowance Portion</t>
   </si>
   <si>
-    <t>Scenario Name</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>NPV</t>
-  </si>
-  <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Number of Years</t>
   </si>
   <si>
     <t>N2O Present</t>
@@ -212,13 +203,15 @@
   <si>
     <t>Emissions Permit Price</t>
   </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -633,7 +626,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -690,12 +683,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -742,8 +729,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -753,6 +738,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -761,7 +750,146 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -776,6 +904,20 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3922DC48-902B-40FA-9101-DF2CD964F26E}" name="Table3" displayName="Table3" ref="A1:E11" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:E11" xr:uid="{3922DC48-902B-40FA-9101-DF2CD964F26E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{72AD1251-FFEE-4F0B-9CB0-3636EA240B75}" name="N2O Present" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{057619A2-247D-41E6-8773-AB7650AE734A}" name="Production (tonnes/year)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6105223C-BC4F-4B7B-9DBA-CE2AD01000F3}" name="Fee Allowance Portion" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{32B80B58-EBA0-43FF-8303-1C48E9064AE6}" name="NPV" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{061B8E57-0E70-4336-9E84-F7639F3AE69F}" name="Emissions Permit Price" dataDxfId="0" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1096,70 +1238,213 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AFB15E-BA71-4499-B2BD-1FB153E20E9B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="28" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="28"/>
-    <col min="4" max="4" width="13.140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="15" style="28" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="28"/>
-    <col min="7" max="7" width="15.42578125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="16" style="26" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14" style="26" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="26">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="26">
+        <v>125000</v>
+      </c>
+      <c r="C3" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="65">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="26">
+        <v>135000</v>
+      </c>
+      <c r="C4" s="57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="65">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="26">
+        <v>145000</v>
+      </c>
+      <c r="C5" s="57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="65">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="26">
+        <v>150000</v>
+      </c>
+      <c r="C6" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="65">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="26">
+        <v>145000</v>
+      </c>
+      <c r="C7" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="D7" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="65">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="26">
+        <v>135000</v>
+      </c>
+      <c r="C8" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="D8" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="65">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="28">
-        <v>10</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E2" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="60">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="26">
+        <v>115000</v>
+      </c>
+      <c r="C9" s="57">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="57">
         <v>0.1</v>
       </c>
-      <c r="G2" s="61">
-        <v>25</v>
+      <c r="E9" s="65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="26">
+        <v>95000</v>
+      </c>
+      <c r="C10" s="57">
+        <v>0.35</v>
+      </c>
+      <c r="D10" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="26">
+        <v>75000</v>
+      </c>
+      <c r="C11" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="65">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6372,7 +6657,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -6387,61 +6672,61 @@
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="I1" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62">
+      <c r="A2" s="58">
         <v>2.5</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="59">
         <v>4.37</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="59">
         <v>1.9</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="60">
         <v>282300000</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="61">
         <v>100400000</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="59">
         <v>5.27</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="59">
         <v>3.84</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="62">
         <v>0.2</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="63">
         <v>1</v>
       </c>
     </row>
@@ -6461,197 +6746,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="17.28515625" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="48" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:12" s="46" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="46" t="s">
+      <c r="G1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="54">
         <v>5</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="47">
         <v>0.19949999999999998</v>
       </c>
-      <c r="C2" s="49">
-        <v>0</v>
-      </c>
-      <c r="D2" s="49">
-        <v>0</v>
-      </c>
-      <c r="E2" s="49">
+      <c r="C2" s="47">
+        <v>0</v>
+      </c>
+      <c r="D2" s="47">
+        <v>0</v>
+      </c>
+      <c r="E2" s="47">
         <v>0.22799999999999998</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="47">
         <v>0.05</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="53">
         <v>0.95000000000000007</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="53">
         <v>1.8136363636363633</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="53">
         <v>1.1083333333333332</v>
       </c>
-      <c r="J2" s="55">
+      <c r="J2" s="53">
         <v>0.58676470588235285</v>
       </c>
-      <c r="K2" s="55">
+      <c r="K2" s="53">
         <v>0.43369565217391298</v>
       </c>
-      <c r="L2" s="50">
+      <c r="L2" s="48">
         <v>0.62343749999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
-        <v>10</v>
-      </c>
-      <c r="B3" s="49">
+      <c r="A3" s="26">
+        <v>10</v>
+      </c>
+      <c r="B3" s="47">
         <v>0.189</v>
       </c>
-      <c r="C3" s="49">
-        <v>0</v>
-      </c>
-      <c r="D3" s="49">
-        <v>0</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="C3" s="47">
+        <v>0</v>
+      </c>
+      <c r="D3" s="47">
+        <v>0</v>
+      </c>
+      <c r="E3" s="47">
         <v>0.216</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="47">
         <v>0.1</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="53">
         <v>0.89999999999999991</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="53">
         <v>1.7181818181818183</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="53">
         <v>1.05</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="53">
         <v>0.55588235294117638</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="53">
         <v>0.41086956521739126</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="48">
         <v>0.59062499999999996</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
-        <v>15</v>
-      </c>
-      <c r="B4" s="49">
+      <c r="A4" s="26">
+        <v>15</v>
+      </c>
+      <c r="B4" s="47">
         <v>0.17849999999999999</v>
       </c>
-      <c r="C4" s="49">
-        <v>0</v>
-      </c>
-      <c r="D4" s="49">
-        <v>0</v>
-      </c>
-      <c r="E4" s="49">
+      <c r="C4" s="47">
+        <v>0</v>
+      </c>
+      <c r="D4" s="47">
+        <v>0</v>
+      </c>
+      <c r="E4" s="47">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="47">
         <v>0.15</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <v>0.85</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="53">
         <v>1.6227272727272726</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="53">
         <v>0.9916666666666667</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="53">
         <v>0.52500000000000002</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="53">
         <v>0.38804347826086955</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="48">
         <v>0.55781249999999993</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57">
+      <c r="A5" s="55">
         <v>20</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="49">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C5" s="51">
-        <v>0</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0</v>
-      </c>
-      <c r="E5" s="51">
+      <c r="C5" s="49">
+        <v>0</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0</v>
+      </c>
+      <c r="E5" s="49">
         <v>0.192</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="49">
         <v>0.2</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="50">
         <v>0.80000000000000016</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="50">
         <v>1.5272727272727273</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="50">
         <v>0.93333333333333335</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="50">
         <v>0.49411764705882355</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="50">
         <v>0.36521739130434783</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="51">
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -6677,150 +6962,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="C2" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C3" s="37">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0</v>
+      </c>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C4" s="37">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="37">
         <v>0.8</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D5" s="38">
         <v>0.6</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E5" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="C6" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0</v>
+      </c>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="39">
-        <v>0</v>
-      </c>
-      <c r="D3" s="40">
-        <v>0</v>
-      </c>
-      <c r="E3" s="37"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="B8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="39">
-        <v>0</v>
-      </c>
-      <c r="D4" s="40">
-        <v>0</v>
-      </c>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="40">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="C8" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="39">
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="43">
         <v>0.2</v>
       </c>
-      <c r="D6" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="39">
-        <v>0</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0</v>
-      </c>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>44</v>
+      <c r="E9" s="41" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/ag_data.xlsx
+++ b/data/ag_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/Scenario Analysis Agriculture GHG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C1D312-75E4-4216-92A5-DC5C5A680239}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{315683C9-4771-4DBA-8040-FCE333394224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C30F81-CEEB-4B49-A661-61CDAAF2F92F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{033F283C-2EC3-4E80-924F-E457BD1171A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Input" sheetId="2" r:id="rId1"/>
@@ -1240,7 +1240,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1453,8 +1453,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,11 +1512,11 @@
         <v>11</v>
       </c>
       <c r="F2" s="7">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G2" s="8">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H2" s="9">
         <v>0</v>
@@ -1539,11 +1539,11 @@
         <v>12</v>
       </c>
       <c r="F3" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G3" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H3" s="15">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G4" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H4" s="15">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G5" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H5" s="15">
         <v>0</v>
@@ -1618,11 +1618,11 @@
         <v>11</v>
       </c>
       <c r="F6" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G6" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H6" s="15">
         <v>0</v>
@@ -1645,11 +1645,11 @@
         <v>12</v>
       </c>
       <c r="F7" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G7" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H7" s="15">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G8" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G9" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H9" s="15">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G10" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H10" s="15">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G11" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H11" s="15">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G12" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H12" s="15">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G13" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H13" s="15">
         <v>0</v>
@@ -1828,11 +1828,11 @@
         <v>11</v>
       </c>
       <c r="F14" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G14" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H14" s="15">
         <v>0</v>
@@ -1855,11 +1855,11 @@
         <v>12</v>
       </c>
       <c r="F15" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G15" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H15" s="15">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G16" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G17" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H17" s="15">
         <v>0</v>
@@ -1934,11 +1934,11 @@
         <v>11</v>
       </c>
       <c r="F18" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G18" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H18" s="15">
         <v>0</v>
@@ -1961,11 +1961,11 @@
         <v>12</v>
       </c>
       <c r="F19" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G19" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H19" s="15">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G20" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H20" s="15">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>12</v>
       </c>
       <c r="F21" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G21" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H21" s="15">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G22" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H22" s="15">
         <v>0</v>
@@ -2066,10 +2066,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G23" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H23" s="15">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>11</v>
       </c>
       <c r="F24" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G24" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H24" s="15">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G25" s="14">
-        <v>17417</v>
+        <v>15000</v>
       </c>
       <c r="H25" s="15">
         <v>0</v>
@@ -2144,12 +2144,11 @@
         <v>11</v>
       </c>
       <c r="F26" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G26" s="14">
-        <f>17417+31519</f>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H26" s="15">
         <v>0</v>
@@ -2172,12 +2171,11 @@
         <v>12</v>
       </c>
       <c r="F27" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G27" s="14">
-        <f t="shared" ref="G27:G31" si="0">17417+31519</f>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H27" s="15">
         <v>0</v>
@@ -2200,11 +2198,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G28" s="14">
-        <f t="shared" si="0"/>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H28" s="15">
         <v>0</v>
@@ -2227,11 +2224,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G29" s="14">
-        <f t="shared" si="0"/>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H29" s="15">
         <v>0</v>
@@ -2254,12 +2250,11 @@
         <v>11</v>
       </c>
       <c r="F30" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G30" s="14">
-        <f t="shared" si="0"/>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
@@ -2282,12 +2277,11 @@
         <v>12</v>
       </c>
       <c r="F31" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G31" s="14">
-        <f t="shared" si="0"/>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H31" s="15">
         <v>0</v>
@@ -2310,11 +2304,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G32" s="14">
-        <f>17417+31519</f>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H32" s="15">
         <v>0</v>
@@ -2337,11 +2330,10 @@
         <v>12</v>
       </c>
       <c r="F33" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G33" s="14">
-        <f>17417+31519</f>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H33" s="15">
         <v>0</v>
@@ -2364,11 +2356,10 @@
         <v>11</v>
       </c>
       <c r="F34" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G34" s="14">
-        <f>17417+31519</f>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H34" s="15">
         <v>0</v>
@@ -2391,11 +2382,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G35" s="14">
-        <f>17417+31519</f>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H35" s="15">
         <v>0</v>
@@ -2418,11 +2408,10 @@
         <v>11</v>
       </c>
       <c r="F36" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G36" s="14">
-        <f t="shared" ref="G36:G37" si="1">17417+31519</f>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H36" s="15">
         <v>0</v>
@@ -2445,11 +2434,10 @@
         <v>12</v>
       </c>
       <c r="F37" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G37" s="14">
-        <f t="shared" si="1"/>
-        <v>48936</v>
+        <v>45000</v>
       </c>
       <c r="H37" s="15">
         <v>0</v>
@@ -2472,12 +2460,11 @@
         <v>11</v>
       </c>
       <c r="F38" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G38" s="14">
-        <f>17417+14818</f>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H38" s="15">
         <v>0</v>
@@ -2500,12 +2487,11 @@
         <v>12</v>
       </c>
       <c r="F39" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G39" s="14">
-        <f t="shared" ref="G39:G49" si="2">17417+14818</f>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H39" s="15">
         <v>0</v>
@@ -2528,11 +2514,10 @@
         <v>11</v>
       </c>
       <c r="F40" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="2"/>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H40" s="15">
         <v>0</v>
@@ -2555,11 +2540,10 @@
         <v>12</v>
       </c>
       <c r="F41" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="2"/>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H41" s="15">
         <v>0</v>
@@ -2582,12 +2566,11 @@
         <v>11</v>
       </c>
       <c r="F42" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G42" s="14">
-        <f t="shared" si="2"/>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H42" s="15">
         <v>0</v>
@@ -2610,12 +2593,11 @@
         <v>12</v>
       </c>
       <c r="F43" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="2"/>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H43" s="15">
         <v>0</v>
@@ -2638,11 +2620,10 @@
         <v>11</v>
       </c>
       <c r="F44" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G44" s="14">
-        <f t="shared" si="2"/>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H44" s="15">
         <v>0</v>
@@ -2665,11 +2646,10 @@
         <v>12</v>
       </c>
       <c r="F45" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="2"/>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H45" s="15">
         <v>0</v>
@@ -2692,11 +2672,10 @@
         <v>11</v>
       </c>
       <c r="F46" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G46" s="14">
-        <f t="shared" si="2"/>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H46" s="15">
         <v>0</v>
@@ -2719,11 +2698,10 @@
         <v>12</v>
       </c>
       <c r="F47" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" si="2"/>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H47" s="15">
         <v>0</v>
@@ -2746,11 +2724,10 @@
         <v>11</v>
       </c>
       <c r="F48" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G48" s="14">
-        <f t="shared" si="2"/>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H48" s="15">
         <v>0</v>
@@ -2773,11 +2750,10 @@
         <v>12</v>
       </c>
       <c r="F49" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G49" s="14">
-        <f t="shared" si="2"/>
-        <v>32235</v>
+        <v>30000</v>
       </c>
       <c r="H49" s="15">
         <v>0</v>
@@ -2800,11 +2776,11 @@
         <v>11</v>
       </c>
       <c r="F50" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G50" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H50" s="15">
         <v>0</v>
@@ -2827,11 +2803,11 @@
         <v>12</v>
       </c>
       <c r="F51" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G51" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H51" s="15">
         <v>0</v>
@@ -2854,10 +2830,10 @@
         <v>11</v>
       </c>
       <c r="F52" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G52" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H52" s="15">
         <v>0</v>
@@ -2880,10 +2856,10 @@
         <v>12</v>
       </c>
       <c r="F53" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G53" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H53" s="15">
         <v>0</v>
@@ -2906,11 +2882,11 @@
         <v>11</v>
       </c>
       <c r="F54" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G54" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H54" s="15">
         <v>0</v>
@@ -2933,11 +2909,11 @@
         <v>12</v>
       </c>
       <c r="F55" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G55" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H55" s="15">
         <v>0</v>
@@ -2960,10 +2936,10 @@
         <v>11</v>
       </c>
       <c r="F56" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G56" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H56" s="15">
         <v>0</v>
@@ -2986,10 +2962,10 @@
         <v>12</v>
       </c>
       <c r="F57" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G57" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H57" s="15">
         <v>0</v>
@@ -3012,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="F58" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G58" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H58" s="15">
         <v>0</v>
@@ -3038,10 +3014,10 @@
         <v>12</v>
       </c>
       <c r="F59" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G59" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H59" s="15">
         <v>0</v>
@@ -3064,10 +3040,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G60" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H60" s="15">
         <v>0</v>
@@ -3090,10 +3066,10 @@
         <v>12</v>
       </c>
       <c r="F61" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G61" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H61" s="15">
         <v>0</v>
@@ -3116,11 +3092,11 @@
         <v>11</v>
       </c>
       <c r="F62" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G62" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H62" s="15">
         <v>0</v>
@@ -3143,11 +3119,11 @@
         <v>12</v>
       </c>
       <c r="F63" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G63" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H63" s="15">
         <v>0</v>
@@ -3170,10 +3146,10 @@
         <v>11</v>
       </c>
       <c r="F64" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G64" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H64" s="15">
         <v>0</v>
@@ -3196,10 +3172,10 @@
         <v>12</v>
       </c>
       <c r="F65" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G65" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H65" s="15">
         <v>0</v>
@@ -3222,11 +3198,11 @@
         <v>11</v>
       </c>
       <c r="F66" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G66" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H66" s="15">
         <v>0</v>
@@ -3249,11 +3225,11 @@
         <v>12</v>
       </c>
       <c r="F67" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G67" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H67" s="15">
         <v>0</v>
@@ -3276,10 +3252,10 @@
         <v>11</v>
       </c>
       <c r="F68" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G68" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H68" s="15">
         <v>0</v>
@@ -3302,10 +3278,10 @@
         <v>12</v>
       </c>
       <c r="F69" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G69" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H69" s="15">
         <v>0</v>
@@ -3328,10 +3304,10 @@
         <v>11</v>
       </c>
       <c r="F70" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G70" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H70" s="15">
         <v>0</v>
@@ -3354,10 +3330,10 @@
         <v>12</v>
       </c>
       <c r="F71" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G71" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H71" s="15">
         <v>0</v>
@@ -3380,10 +3356,10 @@
         <v>11</v>
       </c>
       <c r="F72" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G72" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H72" s="15">
         <v>0</v>
@@ -3406,10 +3382,10 @@
         <v>12</v>
       </c>
       <c r="F73" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G73" s="14">
-        <v>34833</v>
+        <v>35000</v>
       </c>
       <c r="H73" s="15">
         <v>0</v>
@@ -3432,12 +3408,11 @@
         <v>11</v>
       </c>
       <c r="F74" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G74" s="14">
-        <f>34833+30053</f>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H74" s="15">
         <v>0</v>
@@ -3460,12 +3435,11 @@
         <v>12</v>
       </c>
       <c r="F75" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G75" s="14">
-        <f t="shared" ref="G75:G85" si="3">34833+30053</f>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H75" s="15">
         <v>0</v>
@@ -3488,11 +3462,10 @@
         <v>11</v>
       </c>
       <c r="F76" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G76" s="14">
-        <f t="shared" si="3"/>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H76" s="15">
         <v>0</v>
@@ -3515,11 +3488,10 @@
         <v>12</v>
       </c>
       <c r="F77" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G77" s="14">
-        <f t="shared" si="3"/>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H77" s="15">
         <v>0</v>
@@ -3542,12 +3514,11 @@
         <v>11</v>
       </c>
       <c r="F78" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G78" s="14">
-        <f t="shared" si="3"/>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H78" s="15">
         <v>0</v>
@@ -3570,12 +3541,11 @@
         <v>12</v>
       </c>
       <c r="F79" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G79" s="14">
-        <f t="shared" si="3"/>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H79" s="15">
         <v>0</v>
@@ -3598,11 +3568,10 @@
         <v>11</v>
       </c>
       <c r="F80" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G80" s="14">
-        <f t="shared" si="3"/>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H80" s="15">
         <v>0</v>
@@ -3625,11 +3594,10 @@
         <v>12</v>
       </c>
       <c r="F81" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G81" s="14">
-        <f t="shared" si="3"/>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H81" s="15">
         <v>0</v>
@@ -3652,11 +3620,10 @@
         <v>11</v>
       </c>
       <c r="F82" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G82" s="14">
-        <f t="shared" si="3"/>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H82" s="15">
         <v>0</v>
@@ -3679,11 +3646,10 @@
         <v>12</v>
       </c>
       <c r="F83" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G83" s="14">
-        <f t="shared" si="3"/>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H83" s="15">
         <v>0</v>
@@ -3706,11 +3672,10 @@
         <v>11</v>
       </c>
       <c r="F84" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G84" s="14">
-        <f t="shared" si="3"/>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H84" s="15">
         <v>0</v>
@@ -3733,11 +3698,10 @@
         <v>12</v>
       </c>
       <c r="F85" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G85" s="14">
-        <f t="shared" si="3"/>
-        <v>64886</v>
+        <v>65000</v>
       </c>
       <c r="H85" s="15">
         <v>0</v>
@@ -3760,12 +3724,11 @@
         <v>11</v>
       </c>
       <c r="F86" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G86" s="14">
-        <f>34833+14101</f>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H86" s="15">
         <v>0</v>
@@ -3788,12 +3751,11 @@
         <v>12</v>
       </c>
       <c r="F87" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G87" s="14">
-        <f t="shared" ref="G87:G97" si="4">34833+14101</f>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H87" s="15">
         <v>0</v>
@@ -3816,11 +3778,10 @@
         <v>11</v>
       </c>
       <c r="F88" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G88" s="14">
-        <f t="shared" si="4"/>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H88" s="15">
         <v>0</v>
@@ -3843,11 +3804,10 @@
         <v>12</v>
       </c>
       <c r="F89" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G89" s="14">
-        <f t="shared" si="4"/>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H89" s="15">
         <v>0</v>
@@ -3870,12 +3830,11 @@
         <v>11</v>
       </c>
       <c r="F90" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G90" s="14">
-        <f t="shared" si="4"/>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H90" s="15">
         <v>0</v>
@@ -3898,12 +3857,11 @@
         <v>12</v>
       </c>
       <c r="F91" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G91" s="14">
-        <f t="shared" si="4"/>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H91" s="15">
         <v>0</v>
@@ -3926,11 +3884,10 @@
         <v>11</v>
       </c>
       <c r="F92" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G92" s="14">
-        <f t="shared" si="4"/>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H92" s="15">
         <v>0</v>
@@ -3953,11 +3910,10 @@
         <v>12</v>
       </c>
       <c r="F93" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G93" s="14">
-        <f t="shared" si="4"/>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H93" s="15">
         <v>0</v>
@@ -3980,11 +3936,10 @@
         <v>11</v>
       </c>
       <c r="F94" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G94" s="14">
-        <f t="shared" si="4"/>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H94" s="15">
         <v>0</v>
@@ -4007,11 +3962,10 @@
         <v>12</v>
       </c>
       <c r="F95" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G95" s="14">
-        <f t="shared" si="4"/>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H95" s="15">
         <v>0</v>
@@ -4034,11 +3988,10 @@
         <v>11</v>
       </c>
       <c r="F96" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G96" s="14">
-        <f t="shared" si="4"/>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H96" s="15">
         <v>0</v>
@@ -4061,11 +4014,10 @@
         <v>12</v>
       </c>
       <c r="F97" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G97" s="14">
-        <f t="shared" si="4"/>
-        <v>48934</v>
+        <v>50000</v>
       </c>
       <c r="H97" s="15">
         <v>0</v>
@@ -4088,11 +4040,11 @@
         <v>11</v>
       </c>
       <c r="F98" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G98" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H98" s="15">
         <v>0</v>
@@ -4115,11 +4067,11 @@
         <v>12</v>
       </c>
       <c r="F99" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G99" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H99" s="15">
         <v>0</v>
@@ -4142,10 +4094,10 @@
         <v>11</v>
       </c>
       <c r="F100" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G100" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H100" s="15">
         <v>0</v>
@@ -4168,10 +4120,10 @@
         <v>12</v>
       </c>
       <c r="F101" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G101" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H101" s="15">
         <v>0</v>
@@ -4194,11 +4146,11 @@
         <v>11</v>
       </c>
       <c r="F102" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G102" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H102" s="15">
         <v>0</v>
@@ -4221,11 +4173,11 @@
         <v>12</v>
       </c>
       <c r="F103" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G103" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H103" s="15">
         <v>0</v>
@@ -4248,10 +4200,10 @@
         <v>11</v>
       </c>
       <c r="F104" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G104" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H104" s="15">
         <v>0</v>
@@ -4274,10 +4226,10 @@
         <v>12</v>
       </c>
       <c r="F105" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G105" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H105" s="15">
         <v>0</v>
@@ -4300,10 +4252,10 @@
         <v>11</v>
       </c>
       <c r="F106" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G106" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H106" s="15">
         <v>0</v>
@@ -4326,10 +4278,10 @@
         <v>12</v>
       </c>
       <c r="F107" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G107" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H107" s="15">
         <v>0</v>
@@ -4352,10 +4304,10 @@
         <v>11</v>
       </c>
       <c r="F108" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G108" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H108" s="15">
         <v>0</v>
@@ -4378,10 +4330,10 @@
         <v>12</v>
       </c>
       <c r="F109" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G109" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H109" s="15">
         <v>0</v>
@@ -4404,11 +4356,11 @@
         <v>11</v>
       </c>
       <c r="F110" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G110" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H110" s="15">
         <v>0</v>
@@ -4431,11 +4383,11 @@
         <v>12</v>
       </c>
       <c r="F111" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G111" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H111" s="15">
         <v>0</v>
@@ -4458,10 +4410,10 @@
         <v>11</v>
       </c>
       <c r="F112" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G112" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H112" s="15">
         <v>0</v>
@@ -4484,10 +4436,10 @@
         <v>12</v>
       </c>
       <c r="F113" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G113" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H113" s="15">
         <v>0</v>
@@ -4510,11 +4462,11 @@
         <v>11</v>
       </c>
       <c r="F114" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G114" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H114" s="15">
         <v>0</v>
@@ -4537,11 +4489,11 @@
         <v>12</v>
       </c>
       <c r="F115" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G115" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H115" s="15">
         <v>0</v>
@@ -4564,10 +4516,10 @@
         <v>11</v>
       </c>
       <c r="F116" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G116" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H116" s="15">
         <v>0</v>
@@ -4590,10 +4542,10 @@
         <v>12</v>
       </c>
       <c r="F117" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G117" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H117" s="15">
         <v>0</v>
@@ -4616,10 +4568,10 @@
         <v>11</v>
       </c>
       <c r="F118" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G118" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H118" s="15">
         <v>0</v>
@@ -4642,10 +4594,10 @@
         <v>12</v>
       </c>
       <c r="F119" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G119" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H119" s="15">
         <v>0</v>
@@ -4668,10 +4620,10 @@
         <v>11</v>
       </c>
       <c r="F120" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G120" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H120" s="15">
         <v>0</v>
@@ -4694,10 +4646,10 @@
         <v>12</v>
       </c>
       <c r="F121" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G121" s="14">
-        <v>52250</v>
+        <v>55000</v>
       </c>
       <c r="H121" s="15">
         <v>0</v>
@@ -4720,12 +4672,11 @@
         <v>11</v>
       </c>
       <c r="F122" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G122" s="14">
-        <f>52250+28587</f>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H122" s="15">
         <v>0</v>
@@ -4748,12 +4699,11 @@
         <v>12</v>
       </c>
       <c r="F123" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G123" s="14">
-        <f t="shared" ref="G123:G133" si="5">52250+28587</f>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H123" s="15">
         <v>0</v>
@@ -4776,11 +4726,10 @@
         <v>11</v>
       </c>
       <c r="F124" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G124" s="14">
-        <f t="shared" si="5"/>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H124" s="15">
         <v>0</v>
@@ -4803,11 +4752,10 @@
         <v>12</v>
       </c>
       <c r="F125" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G125" s="14">
-        <f t="shared" si="5"/>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H125" s="15">
         <v>0</v>
@@ -4830,12 +4778,11 @@
         <v>11</v>
       </c>
       <c r="F126" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G126" s="14">
-        <f t="shared" si="5"/>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H126" s="15">
         <v>0</v>
@@ -4858,12 +4805,11 @@
         <v>12</v>
       </c>
       <c r="F127" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G127" s="14">
-        <f t="shared" si="5"/>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H127" s="15">
         <v>0</v>
@@ -4886,11 +4832,10 @@
         <v>11</v>
       </c>
       <c r="F128" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G128" s="14">
-        <f t="shared" si="5"/>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H128" s="15">
         <v>0</v>
@@ -4913,11 +4858,10 @@
         <v>12</v>
       </c>
       <c r="F129" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G129" s="14">
-        <f t="shared" si="5"/>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H129" s="15">
         <v>0</v>
@@ -4940,11 +4884,10 @@
         <v>11</v>
       </c>
       <c r="F130" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G130" s="14">
-        <f t="shared" si="5"/>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H130" s="15">
         <v>0</v>
@@ -4967,11 +4910,10 @@
         <v>12</v>
       </c>
       <c r="F131" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G131" s="14">
-        <f t="shared" si="5"/>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H131" s="15">
         <v>0</v>
@@ -4994,11 +4936,10 @@
         <v>11</v>
       </c>
       <c r="F132" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G132" s="14">
-        <f t="shared" si="5"/>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H132" s="15">
         <v>0</v>
@@ -5021,11 +4962,10 @@
         <v>12</v>
       </c>
       <c r="F133" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G133" s="14">
-        <f t="shared" si="5"/>
-        <v>80837</v>
+        <v>85000</v>
       </c>
       <c r="H133" s="15">
         <v>0</v>
@@ -5048,12 +4988,11 @@
         <v>11</v>
       </c>
       <c r="F134" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G134" s="14">
-        <f>52250+13384</f>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H134" s="15">
         <v>0</v>
@@ -5076,12 +5015,11 @@
         <v>12</v>
       </c>
       <c r="F135" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G135" s="14">
-        <f t="shared" ref="G135:G145" si="6">52250+13384</f>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H135" s="15">
         <v>0</v>
@@ -5104,11 +5042,10 @@
         <v>11</v>
       </c>
       <c r="F136" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G136" s="14">
-        <f t="shared" si="6"/>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H136" s="15">
         <v>0</v>
@@ -5131,11 +5068,10 @@
         <v>12</v>
       </c>
       <c r="F137" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G137" s="14">
-        <f t="shared" si="6"/>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H137" s="15">
         <v>0</v>
@@ -5158,12 +5094,11 @@
         <v>11</v>
       </c>
       <c r="F138" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G138" s="14">
-        <f t="shared" si="6"/>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H138" s="15">
         <v>0</v>
@@ -5186,12 +5121,11 @@
         <v>12</v>
       </c>
       <c r="F139" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G139" s="14">
-        <f t="shared" si="6"/>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H139" s="15">
         <v>0</v>
@@ -5214,11 +5148,10 @@
         <v>11</v>
       </c>
       <c r="F140" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G140" s="14">
-        <f t="shared" si="6"/>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H140" s="15">
         <v>0</v>
@@ -5241,11 +5174,10 @@
         <v>12</v>
       </c>
       <c r="F141" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G141" s="14">
-        <f t="shared" si="6"/>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H141" s="15">
         <v>0</v>
@@ -5268,11 +5200,10 @@
         <v>11</v>
       </c>
       <c r="F142" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G142" s="14">
-        <f t="shared" si="6"/>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H142" s="15">
         <v>0</v>
@@ -5295,11 +5226,10 @@
         <v>12</v>
       </c>
       <c r="F143" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G143" s="14">
-        <f t="shared" si="6"/>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H143" s="15">
         <v>0</v>
@@ -5322,11 +5252,10 @@
         <v>11</v>
       </c>
       <c r="F144" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G144" s="14">
-        <f t="shared" si="6"/>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H144" s="15">
         <v>0</v>
@@ -5349,11 +5278,10 @@
         <v>12</v>
       </c>
       <c r="F145" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G145" s="14">
-        <f t="shared" si="6"/>
-        <v>65634</v>
+        <v>70000</v>
       </c>
       <c r="H145" s="15">
         <v>0</v>
@@ -5376,11 +5304,11 @@
         <v>11</v>
       </c>
       <c r="F146" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G146" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H146" s="15">
         <v>0</v>
@@ -5403,11 +5331,11 @@
         <v>12</v>
       </c>
       <c r="F147" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G147" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H147" s="15">
         <v>0</v>
@@ -5430,10 +5358,10 @@
         <v>11</v>
       </c>
       <c r="F148" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G148" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H148" s="15">
         <v>0</v>
@@ -5456,10 +5384,10 @@
         <v>12</v>
       </c>
       <c r="F149" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G149" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H149" s="15">
         <v>0</v>
@@ -5482,11 +5410,11 @@
         <v>11</v>
       </c>
       <c r="F150" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G150" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H150" s="15">
         <v>0</v>
@@ -5509,11 +5437,11 @@
         <v>12</v>
       </c>
       <c r="F151" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G151" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H151" s="15">
         <v>0</v>
@@ -5536,10 +5464,10 @@
         <v>11</v>
       </c>
       <c r="F152" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G152" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H152" s="15">
         <v>0</v>
@@ -5562,10 +5490,10 @@
         <v>12</v>
       </c>
       <c r="F153" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G153" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H153" s="15">
         <v>0</v>
@@ -5588,10 +5516,10 @@
         <v>11</v>
       </c>
       <c r="F154" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G154" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H154" s="15">
         <v>0</v>
@@ -5614,10 +5542,10 @@
         <v>12</v>
       </c>
       <c r="F155" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G155" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H155" s="15">
         <v>0</v>
@@ -5640,10 +5568,10 @@
         <v>11</v>
       </c>
       <c r="F156" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G156" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H156" s="15">
         <v>0</v>
@@ -5666,10 +5594,10 @@
         <v>12</v>
       </c>
       <c r="F157" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G157" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H157" s="15">
         <v>0</v>
@@ -5692,11 +5620,11 @@
         <v>11</v>
       </c>
       <c r="F158" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G158" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H158" s="15">
         <v>0</v>
@@ -5719,11 +5647,11 @@
         <v>12</v>
       </c>
       <c r="F159" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G159" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H159" s="15">
         <v>0</v>
@@ -5746,10 +5674,10 @@
         <v>11</v>
       </c>
       <c r="F160" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G160" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H160" s="15">
         <v>0</v>
@@ -5772,10 +5700,10 @@
         <v>12</v>
       </c>
       <c r="F161" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G161" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H161" s="15">
         <v>0</v>
@@ -5798,11 +5726,11 @@
         <v>11</v>
       </c>
       <c r="F162" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G162" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H162" s="15">
         <v>0</v>
@@ -5825,11 +5753,11 @@
         <v>12</v>
       </c>
       <c r="F163" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G163" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H163" s="15">
         <v>0</v>
@@ -5852,10 +5780,10 @@
         <v>11</v>
       </c>
       <c r="F164" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G164" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H164" s="15">
         <v>0</v>
@@ -5878,10 +5806,10 @@
         <v>12</v>
       </c>
       <c r="F165" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G165" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H165" s="15">
         <v>0</v>
@@ -5904,10 +5832,10 @@
         <v>11</v>
       </c>
       <c r="F166" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G166" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H166" s="15">
         <v>0</v>
@@ -5930,10 +5858,10 @@
         <v>12</v>
       </c>
       <c r="F167" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G167" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H167" s="15">
         <v>0</v>
@@ -5956,10 +5884,10 @@
         <v>11</v>
       </c>
       <c r="F168" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G168" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H168" s="15">
         <v>0</v>
@@ -5982,10 +5910,10 @@
         <v>12</v>
       </c>
       <c r="F169" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G169" s="14">
-        <v>69677</v>
+        <v>65000</v>
       </c>
       <c r="H169" s="15">
         <v>0</v>
@@ -6008,12 +5936,11 @@
         <v>11</v>
       </c>
       <c r="F170" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G170" s="14">
-        <f>69677+27121</f>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H170" s="15">
         <v>0</v>
@@ -6036,12 +5963,11 @@
         <v>12</v>
       </c>
       <c r="F171" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G171" s="14">
-        <f t="shared" ref="G171:G181" si="7">69677+27121</f>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H171" s="15">
         <v>0</v>
@@ -6064,11 +5990,10 @@
         <v>11</v>
       </c>
       <c r="F172" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G172" s="14">
-        <f t="shared" si="7"/>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H172" s="15">
         <v>0</v>
@@ -6091,11 +6016,10 @@
         <v>12</v>
       </c>
       <c r="F173" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G173" s="14">
-        <f t="shared" si="7"/>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H173" s="15">
         <v>0</v>
@@ -6118,12 +6042,11 @@
         <v>11</v>
       </c>
       <c r="F174" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G174" s="14">
-        <f t="shared" si="7"/>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H174" s="15">
         <v>0</v>
@@ -6146,12 +6069,11 @@
         <v>12</v>
       </c>
       <c r="F175" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G175" s="14">
-        <f t="shared" si="7"/>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H175" s="15">
         <v>0</v>
@@ -6174,11 +6096,10 @@
         <v>11</v>
       </c>
       <c r="F176" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G176" s="14">
-        <f t="shared" si="7"/>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H176" s="15">
         <v>0</v>
@@ -6201,11 +6122,10 @@
         <v>12</v>
       </c>
       <c r="F177" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G177" s="14">
-        <f t="shared" si="7"/>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H177" s="15">
         <v>0</v>
@@ -6228,11 +6148,10 @@
         <v>11</v>
       </c>
       <c r="F178" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G178" s="14">
-        <f t="shared" si="7"/>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H178" s="15">
         <v>0</v>
@@ -6255,11 +6174,10 @@
         <v>12</v>
       </c>
       <c r="F179" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G179" s="14">
-        <f t="shared" si="7"/>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H179" s="15">
         <v>0</v>
@@ -6282,11 +6200,10 @@
         <v>11</v>
       </c>
       <c r="F180" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G180" s="14">
-        <f t="shared" si="7"/>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H180" s="15">
         <v>0</v>
@@ -6309,11 +6226,10 @@
         <v>12</v>
       </c>
       <c r="F181" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G181" s="14">
-        <f t="shared" si="7"/>
-        <v>96798</v>
+        <v>90000</v>
       </c>
       <c r="H181" s="15">
         <v>0</v>
@@ -6336,12 +6252,11 @@
         <v>11</v>
       </c>
       <c r="F182" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G182" s="14">
-        <f>69677+12667</f>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H182" s="15">
         <v>0</v>
@@ -6364,12 +6279,11 @@
         <v>12</v>
       </c>
       <c r="F183" s="13">
-        <f>309598</f>
-        <v>309598</v>
+        <f>295000</f>
+        <v>295000</v>
       </c>
       <c r="G183" s="14">
-        <f t="shared" ref="G183:G186" si="8">69677+12667</f>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H183" s="15">
         <v>0</v>
@@ -6392,11 +6306,10 @@
         <v>11</v>
       </c>
       <c r="F184" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G184" s="14">
-        <f t="shared" si="8"/>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H184" s="15">
         <v>0</v>
@@ -6419,11 +6332,10 @@
         <v>12</v>
       </c>
       <c r="F185" s="13">
-        <v>154799</v>
+        <v>150000</v>
       </c>
       <c r="G185" s="14">
-        <f t="shared" si="8"/>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H185" s="15">
         <v>0</v>
@@ -6446,12 +6358,11 @@
         <v>11</v>
       </c>
       <c r="F186" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G186" s="14">
-        <f t="shared" si="8"/>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H186" s="15">
         <v>0</v>
@@ -6474,12 +6385,11 @@
         <v>12</v>
       </c>
       <c r="F187" s="13">
-        <f>3616</f>
-        <v>3616</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="G187" s="14">
-        <f>69677+12667</f>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H187" s="15">
         <v>0</v>
@@ -6502,11 +6412,10 @@
         <v>11</v>
       </c>
       <c r="F188" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G188" s="14">
-        <f t="shared" ref="G188:G193" si="9">69677+12667</f>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H188" s="15">
         <v>0</v>
@@ -6529,11 +6438,10 @@
         <v>12</v>
       </c>
       <c r="F189" s="13">
-        <v>219311</v>
+        <v>210000</v>
       </c>
       <c r="G189" s="14">
-        <f t="shared" si="9"/>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H189" s="15">
         <v>0</v>
@@ -6556,11 +6464,10 @@
         <v>11</v>
       </c>
       <c r="F190" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G190" s="14">
-        <f t="shared" si="9"/>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H190" s="15">
         <v>0</v>
@@ -6583,11 +6490,10 @@
         <v>12</v>
       </c>
       <c r="F191" s="13">
-        <v>26551</v>
+        <v>25000</v>
       </c>
       <c r="G191" s="14">
-        <f t="shared" si="9"/>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H191" s="15">
         <v>0</v>
@@ -6610,11 +6516,10 @@
         <v>11</v>
       </c>
       <c r="F192" s="13">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G192" s="14">
-        <f t="shared" si="9"/>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H192" s="15">
         <v>0</v>
@@ -6637,11 +6542,10 @@
         <v>12</v>
       </c>
       <c r="F193" s="19">
-        <v>2595</v>
+        <v>2500</v>
       </c>
       <c r="G193" s="20">
-        <f t="shared" si="9"/>
-        <v>82344</v>
+        <v>75000</v>
       </c>
       <c r="H193" s="21">
         <v>0</v>
@@ -6658,7 +6562,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6703,31 +6607,31 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="B2" s="59">
-        <v>4.37</v>
+        <v>4.25</v>
       </c>
       <c r="C2" s="59">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="D2" s="60">
-        <v>282300000</v>
+        <v>275000000</v>
       </c>
       <c r="E2" s="61">
-        <v>100400000</v>
+        <v>100000000</v>
       </c>
       <c r="F2" s="59">
-        <v>5.27</v>
+        <v>5.15</v>
       </c>
       <c r="G2" s="59">
-        <v>3.84</v>
+        <v>3.75</v>
       </c>
       <c r="H2" s="62">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I2" s="63">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -6741,7 +6645,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6793,7 +6697,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="47">
-        <v>0.19949999999999998</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="C2" s="47">
         <v>0</v>
@@ -6802,28 +6706,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="47">
-        <v>0.22799999999999998</v>
+        <v>0.249</v>
       </c>
       <c r="F2" s="47">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G2" s="53">
-        <v>0.95000000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="H2" s="53">
-        <v>1.8136363636363633</v>
+        <v>1.7136363636363601</v>
       </c>
       <c r="I2" s="53">
-        <v>1.1083333333333332</v>
+        <v>1.30833333333333</v>
       </c>
       <c r="J2" s="53">
-        <v>0.58676470588235285</v>
+        <v>0.78676470588235303</v>
       </c>
       <c r="K2" s="53">
-        <v>0.43369565217391298</v>
+        <v>0.53369565217391302</v>
       </c>
       <c r="L2" s="48">
-        <v>0.62343749999999998</v>
+        <v>0.72343749999999996</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6831,7 +6735,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="47">
-        <v>0.189</v>
+        <v>0.185</v>
       </c>
       <c r="C3" s="47">
         <v>0</v>
@@ -6840,28 +6744,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="47">
-        <v>0.216</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="F3" s="47">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G3" s="53">
-        <v>0.89999999999999991</v>
+        <v>0.85</v>
       </c>
       <c r="H3" s="53">
-        <v>1.7181818181818183</v>
+        <v>1.6181818181818199</v>
       </c>
       <c r="I3" s="53">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="J3" s="53">
-        <v>0.55588235294117638</v>
+        <v>0.65588235294117603</v>
       </c>
       <c r="K3" s="53">
-        <v>0.41086956521739126</v>
+        <v>0.46086956521739098</v>
       </c>
       <c r="L3" s="48">
-        <v>0.59062499999999996</v>
+        <v>0.69062500000000004</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6869,7 +6773,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="47">
-        <v>0.17849999999999999</v>
+        <v>0.17249999999999999</v>
       </c>
       <c r="C4" s="47">
         <v>0</v>
@@ -6878,28 +6782,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="47">
-        <v>0.20399999999999999</v>
+        <v>0.184</v>
       </c>
       <c r="F4" s="47">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G4" s="53">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="53">
-        <v>1.6227272727272726</v>
+        <v>1.52272727272727</v>
       </c>
       <c r="I4" s="53">
-        <v>0.9916666666666667</v>
+        <v>0.89166666666666705</v>
       </c>
       <c r="J4" s="53">
-        <v>0.52500000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="K4" s="53">
-        <v>0.38804347826086955</v>
+        <v>0.33804347826087</v>
       </c>
       <c r="L4" s="48">
-        <v>0.55781249999999993</v>
+        <v>0.45781250000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6907,7 +6811,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="49">
-        <v>0.16800000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="C5" s="49">
         <v>0</v>
@@ -6916,28 +6820,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="49">
-        <v>0.192</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="F5" s="49">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G5" s="50">
-        <v>0.80000000000000016</v>
+        <v>0.7</v>
       </c>
       <c r="H5" s="50">
-        <v>1.5272727272727273</v>
+        <v>1.4272727272727299</v>
       </c>
       <c r="I5" s="50">
-        <v>0.93333333333333335</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="J5" s="50">
-        <v>0.49411764705882355</v>
+        <v>0.39411764705882402</v>
       </c>
       <c r="K5" s="50">
-        <v>0.36521739130434783</v>
+        <v>0.26521739130434802</v>
       </c>
       <c r="L5" s="51">
-        <v>0.52500000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6950,8 +6854,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6986,10 +6890,10 @@
         <v>34</v>
       </c>
       <c r="C2" s="33">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D2" s="34">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>35</v>
@@ -7033,10 +6937,10 @@
         <v>34</v>
       </c>
       <c r="C5" s="37">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D5" s="38">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>35</v>
@@ -7050,10 +6954,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="38">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>35</v>
@@ -7082,10 +6986,10 @@
         <v>40</v>
       </c>
       <c r="C8" s="33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D8" s="34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>41</v>
@@ -7099,10 +7003,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="42">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D9" s="43">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>41</v>
